--- a/outputs/a/quote_types/list_q_pa.xlsx
+++ b/outputs/a/quote_types/list_q_pa.xlsx
@@ -11,22 +11,24 @@
     <sheet name="A02 vie saint barbre" sheetId="2" r:id="rId2"/>
     <sheet name="A03 vie saint basille" sheetId="3" r:id="rId3"/>
     <sheet name="A04 vie saint christofle" sheetId="4" r:id="rId4"/>
-    <sheet name="A06 saint jean evangeliste" sheetId="5" r:id="rId5"/>
-    <sheet name="A07 vie saint jean paulus" sheetId="6" r:id="rId6"/>
-    <sheet name="A08 vie glorieux confesseur" sheetId="7" r:id="rId7"/>
-    <sheet name="A09 vie saint leu" sheetId="8" r:id="rId8"/>
-    <sheet name="A11 vie saint sebastien" sheetId="9" r:id="rId9"/>
-    <sheet name="A12 miracle saint servais" sheetId="10" r:id="rId10"/>
-    <sheet name="A13 vie seint thibault" sheetId="11" r:id="rId11"/>
-    <sheet name="A16 guillaume angleterre" sheetId="12" r:id="rId12"/>
-    <sheet name="A17 robert deable" sheetId="13" r:id="rId13"/>
-    <sheet name="A18 richart sans peour" sheetId="14" r:id="rId14"/>
-    <sheet name="A19 elegy troyes" sheetId="15" r:id="rId15"/>
-    <sheet name="A20 vieillards tués" sheetId="16" r:id="rId16"/>
-    <sheet name="A21 mauvais riche homme" sheetId="17" r:id="rId17"/>
-    <sheet name="A22 jeu des dez" sheetId="18" r:id="rId18"/>
-    <sheet name="A23 roy avoit amie" sheetId="19" r:id="rId19"/>
-    <sheet name="A25 quatre sereurs" sheetId="20" r:id="rId20"/>
+    <sheet name="A05 vie sainte dieudonnee" sheetId="5" r:id="rId5"/>
+    <sheet name="A06 saint jean evangeliste" sheetId="6" r:id="rId6"/>
+    <sheet name="A07 vie saint jean paulus" sheetId="7" r:id="rId7"/>
+    <sheet name="A08 vie glorieux confesseur" sheetId="8" r:id="rId8"/>
+    <sheet name="A09 vie saint leu" sheetId="9" r:id="rId9"/>
+    <sheet name="A10 poines enfer" sheetId="10" r:id="rId10"/>
+    <sheet name="A11 vie saint sebastien" sheetId="11" r:id="rId11"/>
+    <sheet name="A12 miracle saint servais" sheetId="12" r:id="rId12"/>
+    <sheet name="A13 vie seint thibault" sheetId="13" r:id="rId13"/>
+    <sheet name="A16 guillaume angleterre" sheetId="14" r:id="rId14"/>
+    <sheet name="A17 robert deable" sheetId="15" r:id="rId15"/>
+    <sheet name="A18 richart sans peour" sheetId="16" r:id="rId16"/>
+    <sheet name="A19 elegy troyes" sheetId="17" r:id="rId17"/>
+    <sheet name="A20 vieillards tués" sheetId="18" r:id="rId18"/>
+    <sheet name="A21 mauvais riche homme" sheetId="19" r:id="rId19"/>
+    <sheet name="A22 jeu des dez" sheetId="20" r:id="rId20"/>
+    <sheet name="A23 roy avoit amie" sheetId="21" r:id="rId21"/>
+    <sheet name="A25 quatre sereurs" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1445,6 +1447,576 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>88</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Confession requierent que Jhesu peur pardont,</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Et quant il sunt confés penitantce ne font.”</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Seingneur, ne cuidés pas quant pechiés et nommés,</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>130</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Merci biaus sire peres, bons roys de majesté.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Targés m'ame et mon cors que ne soie dané.”</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Saint Michiel l'esgarda s'el vit espoenté.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>185</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bien deüst retorner por nous fors d'ici traire.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Trop soums en destrece ne savon mes que faire.”</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Saint Pol vit le torment et forment s'esmaia;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>193</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Quant voient leur besoing, pitié ne leur enprent;</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pour ce sunt tormenté ensi aspre torment.”</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Seingnor, je vous chasti ,ne vous orgueilliés,</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>274</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>“Ce sont,” dist saint Michiel “larron et ravisor</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Qui a la povre gent tollirent lor labor.”</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>En ce flueve a senestre en ce mortel peril,</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>315</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Enlumine mes iex de ta grant resplendor,</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Que je puisse vëoir dedens cele oscuror.”</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>En cele tenebrour a saint Pol esgardé;</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>347</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Toz jorz vont criant: “Fames, sachiez Dex est venus;</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Conoisés Jhesucrist et les sienes vertus.”</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Chescune a haute voiz quanque puet crie et brait.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>408</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ne terre ne meson ne lor puet remanoir;</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Quant il crient merci, riens ne lor puet valoir.”</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Oiez com la meson a ciaus est vile et orde;</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>453</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>“Ce fu,” dist saint Michiel, “un evesque orgueillous;</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Tant com vesqui a monde si fu luxurious.”</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Quant saint Pol ot oï qu'il ot vesques esté,</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>461</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Quant tu seras au mond sel di as pecheors,</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Quel li lieus d'enfer sont et quelles les dolors.”</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Seygneur, moult devez estre trestoz en grant pensé,</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>493</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tu ne porroies mie la grant puor soffrir,</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Qui del pui d'enfer ist; ja t'estouvroit morir.”</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Saint Michiel a la chartre d'enfer desscelee;</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>505</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Qui sont icil chaitis qui si ont deservi</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Qui iluec seront mis donc la puor issi?”</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Saint Michiel dist: “Saint Pol, entent a ma raison:</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>513</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pour ce sont en enfer en la puor lancié,</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Et toz jorz iseront pené et travaillié.”</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Saint Pol a regardé vers le ciel contremont.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>44</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Et si dit, quant fut mort, qu'au tiers jour ressourdi,</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ne prise Mahonmet nïent qu'un chien pourri.”</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Des ce que le tirant out les mes escoutez,</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>48</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Puis dit a ses serjans: “Faites toust, ci alez</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Querir Sebastïen et ci le m'amenez.”</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Lez serjans s'en alerent tantoust sans contredit,</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>56</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Et aores Jhesu qui morut en pendent:</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Se c'est voir, tu mourras a martire molt grant.”</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tantoust com le tirant out dites ces paroles,</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>64</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Et c'est ici Mahom, et ici Saturnus:</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Celx qui ne lez aorent sont dampnez et perdus.”</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Lors saint Sebastien respondi sans demour:</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>77</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Et si perdent les ames, de ce sui ge certain.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>N'est creance qui vaille la foy de sainte Yglise.”</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Quant le tirant l'ouÿ, si li dist par faintise:</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>83</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chevaus, robes, deniers a ton voloeur aras</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Et te donray de terre assez plus que tu n'as.”</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Saint Sebastïen dit: “En vain tu te debas,</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>89</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Qui muert en lui servant, molt bien li est rendu.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Car il est en la gloire qui est sans finement.”</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Quant le tyrant l'oÿ, sy en out grant tourment,</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>92</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Forment li escria: “Mauves glouton pullant,</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Je te feray livrer a martire molt grant.”</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Du grant courrouz qu'il out le fist nu despouller</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>112</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Et si m'a fet tout sain mes Diex qui est loyaus:</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Celx qui en luy ne croient sont pires que pourciaus.”</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Du pueple mescreent se converti tout plain</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>128</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mes tu trebucheras en la puant chaudiere</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>D'enfer, ou les dyables te feront lede chiere.”</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Quant le saint out ce dit, les anges descendirent</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>240</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Et vivre le droit aige selonc cours de nature</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Nous t'en deprions touz de pensee neste et pure.”</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Saint Sebastïen out pour Jhesu grief martire:</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>251</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>C'est “Qui voit la meson de son voysin ardoir</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Pas ne doit en la sienne molt grant fiance avoir.”</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Saint Sebastïen vueille nous amez recevoir.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1659,7 +2231,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>“Par foy,” dit elle, frere, “puis que vous le voulez.</t>
+          <t>“Par foy,” dit elle, “frere, puis que vous le voulez.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1978,7 +2550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -2373,9 +2945,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2409,17 +2981,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Quar sachiez de certain se vostre fruit perdoie</t>
+          <t>Quar sachiez de certain, se vostre fruit perdoie,</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Et Dieus ne me gardoit hors de mon sens ystroie”</t>
+          <t>Et Dieus ne me gardoit, hors de mon sens ystroie.”</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>La dame respondi “Chier sire je l'ostroie</t>
+          <t>La dame respondi: “Chier sire, je l'ostroie,</t>
         </is>
       </c>
     </row>
@@ -2429,17 +3001,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La dame respondi “Chier sire je l'ostroie</t>
+          <t>La dame respondi: “Chier sire, je l'ostroie,</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Car vostre voulenté si doit estre la moie”</t>
+          <t>Car vostre voulenté si doit estre la moie.”</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Adonques li bons roys a matines ala</t>
+          <t>Adonques li bons roys a matines ala,</t>
         </is>
       </c>
     </row>
@@ -2449,437 +3021,437 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pour conquester la joie de ciex qui tant est saine</t>
+          <t>Pour conquester la joie de ciex, qui tant est saine.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Suesfre tout en bon gré el non de Jhesucrist”</t>
+          <t>Suesfre tout en bon gré, el non de Jhesucrist.”</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lors s'en parti la vois tantost qu'elle ot ce dit</t>
+          <t>Lors s'en parti la vois tantost qu'elle ot ce dit;</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ne vous ne vostre pere dont Dieus asoille l'ame</t>
+          <t>Dieu veult qu'en essil voisses; fous es, quant tu n'i vas.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Que vous le fassiez rendre cil qui fu sans disfame”</t>
+          <t>Je m'en revois arriere, fai ce que tu voudras.”</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Li dist “Je le weil bien foy que doy Nostre Dame”</t>
+          <t>Adont le roy englois se leva ensespas.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dieu veult qu'en essil voisses fous es quant tu n'i vas</t>
+          <t>Qu'alissiez en essil, puis que Diex le vous mande:</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Je m'en revois arriere fai ce que tu voudras”</t>
+          <t>Chascun de nous doit faire tout ce qu'il nous commande.”</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Adont le roy englois se leva ens espas</t>
+          <t>Le roy engloys, qui ot en Dieu amour tres grande,</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Qu'alissiez en essil puis que Diex le vous mande</t>
+          <t>Douce ami loiale, jamés ne vous verré</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Chascun de nous doit faire tout ce qu'il nous commande”</t>
+          <t>Ne le fruit que j'avoie dedens vous engendré.”</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Le roy engloys qui ot en Dieu amour tres grande</t>
+          <t>La roÿne l'ouï, moult ot le cuer serré,</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>“Douce ami loiale jamés ne vous verré</t>
+          <t>“Hé! roy, dist la roïne, vos amours fausses sont;</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ne le fruit que j'avoie dedens vous engendré”</t>
+          <t>Mes les moies sont vraies, jamés ne fauseront.”</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>La royne l'oui moult ot le cuer serré</t>
+          <t>Adonques la roïne aus piez du roy chaï</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>“Hé; roy dist la roine vos amours fausses sont</t>
+          <t>Car je ne vous lairai, tant com je soie en vie.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mes les moies sont vraies jamés ne fauseront”</t>
+          <t>Vous alez en essil; mes sans moi n'irés mie.”</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Adonques la roine aus piez du roy chai</t>
+          <t>Quant le roy l'entandi, si li dist: “Douce ami,</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Car je ne vous lairai tant com je soie en vie</t>
+          <t>Car voir se les gens sevent que je m'en doie aler,</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vous alez en essil mes sans moi n'irés mie”</t>
+          <t>Pour rien ne me pourroie de leur mains eschaper.”</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Quant le roy l'entandi si li dist “Douce ami</t>
+          <t>La dame dist: “Franc roi, trop avez fol penser.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Car voir se les gens sevent que je m'en doie aler</t>
+          <t>Nous deus avons ensemble moult eües d'amours:</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pour rien ne me pourroie de leur mains eschaper”</t>
+          <t>Pour ce doi ge o vous endurer les doulours.”</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>La dame dist “Franc roi trop avez fol penser</t>
+          <t>Le roy englois, qui plains estoit de bonnes meurs,</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nous .ii. avons ensemble moult eües d'amours</t>
+          <t>Puis li dist: “Douce suer, se je vous enmenoie,</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Pour ce doi ge o vous endurer les doulours”</t>
+          <t>Le fruit de vostre corps et vous meismes perdroie.”</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Le roy englois qui plains estoit de bonnes meurs</t>
+          <t>Elle li respondi: “Et se je demouroie,</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Puis li dist “Douce suer se je vous enmenoie</t>
+          <t>Elle li respondi: “Et se je demouroie,</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Le fruit de vostre corps et vous meismes perdroie”</t>
+          <t>Je suis toute certaine que de duel m'ocirroie.”</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Elle li respondi “Et se je demouroie</t>
+          <t>Lors li dist le roy: “Dame, soit a vostre plessir;</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Elle li respondi “Et se je demouroie</t>
+          <t>Parmi ceste fenestre nous convandra issir,</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Je suis toute certaine que de duel m'ocirroie”</t>
+          <t>Afin c'om ne nous puisse avisser ne choissir.”</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Lors li dist le roy “Dame soit a vostre plessir</t>
+          <t>Le roy par la fenestre premier se devala,</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parmi ceste fenestre nous couvandra issir</t>
+          <t>Le roy dist a la dame: “Voir, trop sui courouciez</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Afin c'om ne nous puisse avisser ne choissir”</t>
+          <t>Que ne puis trouver fame dont vo corps soit aidiez.”</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Le roy par la fenestre premier se devala</t>
+          <t>Elle dist: “Mon seingneur, or ne vous esmaiés</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Le roy dist a la dame “Voir trop sui courouciez</t>
+          <t>Elle dist: “Mon seingneur, or ne vous esmaiés</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Que ne puis trouver fame dont vo corps soit aidiez”</t>
+          <t>Alons a celle roche sans estre delaiez.”</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Elle dist “Mon seingneur or ne vous esmaiés</t>
+          <t>Le roy fist tant c'u crues de la roche se mirent.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Elle dist “Mon seingneur or ne vous esmaiés</t>
+          <t>“Hé, tres dous Roi de gloire! je m'esrage de fain;</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Alons a celle roche sans estre delaiez”</t>
+          <t>Mourir me couvandra, se briement n'ai du pain.”</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Le roy fist tant c'u crues de la roche se mirent</t>
+          <t>Le roi requist de cuer le Pere souverain.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>“Hé; tres dous roi de gloire je m'esrage de fain</t>
+          <t>Trop miex vaut que mengiez de ma char grant partie</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mourir me couvandra se briement n'ai du pain”</t>
+          <t>Que cest petit enfant: n'i a mort deservie.”</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Le roi requist de cuer le pere souverain</t>
+          <t>A ce mot la roïne moult tendrement lermie,</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>N'usseront vostre char” le roi qui fu dolens</t>
+          <t>Alés querre du pain. Toute sui trespassee;</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Respondi douce suer ne puis trouver pourpens”</t>
+          <t>Voir, j'atendrai moult bien la vostre retornee.”</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Par quel point vostre fain puist estre rapaissie</t>
+          <t>Adonques li bons rois issi hors du rochier</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Trop miex vaut que mengiez de ma char grant partie</t>
+          <t>“Seingneurs, pour l'amour du tres dous Jhesucrist,</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Que cest petit enfant ni a mort deservie”</t>
+          <t>Donnés moi de vos pain, s'il vous plest, un petit.”</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A ce mot la roine moult tendrement lermie</t>
+          <t>Lors un mauvés glouton s'escria par despit:</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>“Seingneurs pour l'amour du tres dous Jhesucrist</t>
+          <t>Trop est fort et delivre, et va son pain querant!</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Donnés moi de vos pain s'il vous plest un petit”</t>
+          <t>Trop envis li donroie, je li toudroie avant.”</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Lors un mauvés glouton s'escria par despit</t>
+          <t>Un autre respondi qui estoit plus sachant:</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Trop est fort et delivre et va son pain quérant</t>
+          <t>Qui ne puent trouver leur pain a gaaingnier.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Trop envis li donroie je li toudroie avant”</t>
+          <t>Ceus sont fous qui mesdient de la menue gent.”</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Un autre respondi qui estoit plus sachant</t>
+          <t>Le bon roy d'Engleterre parla moult doucement:</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Qui ne puent trouver leur pain a gaaingnier</t>
+          <t>Pour Dieu vous en requier, s'en avés aissement.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ceus sont fous qui mesdient de la menue gent”</t>
+          <t>Voir, onques tel mestier n'en oy jour de ma vie.”</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Le bon roy d'Engleterre parla moult doucement</t>
+          <t>Lors un mauvés glouton a haute vois c'escrie:</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pour Dieu vous en requier s'en avés aissement</t>
+          <t>“Certes, n'as pas ta lengue pour ton escot laissie.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Voir onques tel mestier n'en oÿ jour de ma vie”</t>
+          <t>Les bribes qu'as mengiés ne comteroie mie.”</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lors un mauvés glouton a haute vois c'escrie</t>
+          <t>Le roy, qui ot grant duel, doucement respondi:</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>“Certes n'as pas ta lengue pour ton escot laissie</t>
+          <t>Car de deus enfans c'est en l'eure delivree</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Les bribes qu'as mengiés ne comteroie mie”</t>
+          <t>En un crués d'une roche, la gist toute afanmee.”</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Le roy qui ot grant duel doucement respondi</t>
+          <t>L'un des marcheans dist: “Voir, belle la trouvee;</t>
         </is>
       </c>
     </row>
@@ -2889,995 +3461,1035 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>L'un des marchéans dist “Voir belle la trouvee</t>
+          <t>L'un des marcheans dist: “Voir, belle la trouvee;</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Par ce point cuide avoir l'aumosne recouvree”</t>
+          <t>Par ce point cuide avoir l'aumosne recouvree.”</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Le mestre de la nef a dit or entendon</t>
+          <t>Le mestre de la nef a dit: “Or entendon.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Il leur a dit “Seingneur je ne sui pas mentans</t>
+          <t>Alons ovecques lui; se menteur le trouvon,</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Vés ici ma famme et mes enfans petis”</t>
+          <t>Je los qu'il soit batus a retour Marion.”</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Quant les marchéans la virent touz furent esbahis</t>
+          <t>Assez des plus hardis, qui grans et fors estoient,</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Quant avec vous gist fame si douce et si tandre</t>
+          <t>Il leur a dit: “Seingneur, je ne sui pas mentans;</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Voir nous l'enporteron en no nef sans atendre”</t>
+          <t>Vés ici ma famme et mes enfans petis.”</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Quant le roi l'entendi s'espee courut prendre</t>
+          <t>Quant les marcheans la virent, touz furent esbahis;</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Les batars te lairons par les moustiers iras</t>
+          <t>Quant avec vous gist fame si douce et si tandre.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>On te donra assés tant com tu les avras”</t>
+          <t>Voir nous l'enporteron en no nef, sans atendre.”</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>La dame s'escria “Pour Dieu soiez nous dous</t>
+          <t>Quant le roi l'entendi, s'espee courut prendre;</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>La dame s'escria “Pour Dieu soiez nous dous</t>
+          <t>Les batars te lairons. Par les moustiers iras;</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Je vous jure sur sains que c'est mon drois espous”</t>
+          <t>On te donra assés, tant com tu les avras.”</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Les gloutons distrent “Fole et pourquoi mentez vous”</t>
+          <t>La dame s'escria: “Pour Dieu, soiez nous dous!</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ceste bourcete avras lonctemps a esté moie</t>
+          <t>La dame s'escria: “Pour Dieu, soiez nous dous!</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>S'on te fait desraison voir Dieu t'en vengera”</t>
+          <t>Je vous jure sur sains que c'est mon drois espous.”</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>La bource o .v. florins tout droit au roy geta</t>
+          <t>Les gloutons distrent: “Fole, et pourquoi mentez vous?”</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Que cest enfant soit mien et je vous acrëant</t>
+          <t>Ceste bourcete avras, lonctemps a esté moie.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Que bien sera nourri se Jhesucrist me gart”</t>
+          <t>S'on te fait desraison, voir Dieu t'en vengera.”</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Chascun des autres dist “Je vous en quit ma part”</t>
+          <t>La bource o cinq florins tout droit au roy geta;</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>479</v>
+        <v>417</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dieus m'avoit les enfans et la dame donnés</t>
+          <t>Que cest enfant soit mien; et je vous acreant</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Se tolu le mes a il en soit aourés”</t>
+          <t>Que bien sera nourri, se Jhesucrist me gart.”</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Adoncques c'est le roi vers la terre enclinés</t>
+          <t>Chascun des autres dist: “Je vous en quit ma part.”</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>520</v>
+        <v>479</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tout l'autre avoir vous quit car par Saint Nicolas</t>
+          <t>Dieus m'avoit les enfans et la dame donnés:</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Je croi qu'el n'est pas nee de lingnage moult bas”</t>
+          <t>Se tolu le mes a, il en soit aourés!”</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Ainsi fu la royne aus marchéans ostee</t>
+          <t>Adoncques c'est le roi vers la terre enclinés;</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Que je vous ferai dame de ma grant herité</t>
+          <t>Tout l'autre avoir vous quit; car, par Saint Nicolas,</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Espouser vous voudrai dedens un mois passé”</t>
+          <t>Je croi qu'el n'est pas nee de lingnage moult bas.”</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Quant la douce roine le parler entendi</t>
+          <t>Ainsi fu la roÿne aus marcheans ostee.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Je ne sai que respondre voir miex mourir voudroie</t>
+          <t>Que je vous ferai dame de ma grant herité.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Que la char de cest homme atouchast a la moie”</t>
+          <t>Espouser vous voudrai dedens un mois passé.”</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Lors dist la roine “Sire pas ne seroie</t>
+          <t>Quant la douce roïne le parler entendi,</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Plus erré comme fole lonctemps par le pais</t>
+          <t>Je ne sai que respondre; voir, miex mourir voudroie</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ne veoie mon corps a grans ni a petis”</t>
+          <t>Que la char de cest homme atouchast a la moie.”</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Celui qui ot son cuer en la roine mis</t>
+          <t>Lors dist la roïne: “Sire, pas ne seroie</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ne me chaut qu'aiez fait mes que d'ore en avant</t>
+          <t>Plus erré comme fole lonctemps par le païs,</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Me weilliez estre bonne n'en alez plus parlent”</t>
+          <t>Ne veoie mon corps a grans ni a petis.”</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Lors sa la la roine d'autre engin a pensant</t>
+          <t>Celui qui ot son cuer en la roïne mis,</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>.II. ans m'en sui tenue or faut le tiers passer</t>
+          <t>Ne me chaut qu'aiez fait, mes que d'ore en avant</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Adont me pourres vous s'il vous plest espouser”</t>
+          <t>Me weilliez estre bonne. N'en alez plus parlent.”</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Le sire dist “M'amie ne vous en faut doubter</t>
+          <t>Lors s'ala la roïne d'autre engin apensant,</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mes ja n'avrai vers vous charnele compaingnie</t>
+          <t>Deux ans m'en sui tenue, or faut le tiers passer:</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Jusqu'a tant que l'anee sera toute acomplie”</t>
+          <t>Adont me pourrés vous, s'il vous plest, espouser.”</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>La dame l'ostroia mes el n'en fu pas lie</t>
+          <t>Le sire dist: “M'amie, ne vous en faut doubter.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>595</v>
+        <v>567</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Bien pert que as hanté entre gent trop vilaine</t>
+          <t>Mes ja n'avrai vers vous charnele compaingnie,</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Je te doins ceste cote vest la en bonne estraine”</t>
+          <t>Jusqu'a tant que l'anee sera toute acomplie.”</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Le roi l'en mercia qui avoit foible alaine</t>
+          <t>La dame l'ostroia; mes el n'en fu pas lie.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Se meller te savoies d'un palefroi garder</t>
+          <t>Bien pert que as hanté entre gent trop vilaine.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Avec moi te pourroies de tes maus respasser”</t>
+          <t>Je te doins ceste cote, vest la en bonne estraine.”</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Le roy respondi “Sire je m'en puis bien venter</t>
+          <t>Le roi l'en mercia, qui avoit foible alaine.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Le roy respondi “Sire je m'en puis bien venter</t>
+          <t>Se meller te savoies d'un palefroi garder,</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Que d'atourner chevaus bien la guisse savon”</t>
+          <t>Avec moi te pourroies de tes maus respasser.”</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Le riche homme mena le roy en sa maison</t>
+          <t>Le roy respondi: “Sire, je m'en puis bien venter,</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>650</v>
+        <v>621</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Par foi ja ne coudrai mantiau ne pelicon</t>
+          <t>Le roy respondi: “Sire, je m'en puis bien venter,</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>S'avecques moi n'aprant ausi mon compaignon”</t>
+          <t>Que d'atourner chevaus bien la guisse savon.”</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Quant le marchéant oÿ qu'il desdist sa raison</t>
+          <t>Le riche homme mena le roy en sa maison.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Je te pris sur la mer estroit envelopé</t>
+          <t>Par foi, ja ne coudrai mantiau ne pelicon,</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>U pan d'une viez cote que j'ai long temps gardé”</t>
+          <t>S'avecques moi n'aprant ausi mon compaignon.”</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Errant vint a sa huche celui qui s'aira</t>
+          <t>Quant le marcheant oÿ qu'il desdist sa raison,</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Et li dist par despit “Tien vés la biau gage</t>
+          <t>Je te pris sur la mer, estroit envelopé</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ou gissoies quant fus rescous au leu sauvage”</t>
+          <t>U pan d'une viez cote, que j'ai long temps gardé.”</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Lors quant le filz le roy le marchant entendi</t>
+          <t>Errant vint a sa huche celui qui s'aïra,</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Quant alevé m'avés et de mort garenti</t>
+          <t>Et li dist par despit: “Tien, vés la biau gage,</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ne sera jamés heure que ne vous doie amer”</t>
+          <t>Ou gissoies quant fus rescous au leu sauvage.”</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Quant le marchéant l'oï si sagement parler</t>
+          <t>Lors quant le filz le roy le marchant entendi,</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Pour toi chastier ai ceste bourde trouvee</t>
+          <t>Quant alevé m'avés et de mort garenti,</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Voir tu es mon droit filz plus t'ainme que rien nee”</t>
+          <t>Ne sera jamés heure que ne vous doie amer.”</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>L'anfant li dist “Dous sire par la vierge honnoree</t>
+          <t>Quant le marcheant l'oï si sagement parler,</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>L'autre enfant respondi “Compains vous l'orrés ja</t>
+          <t>Pour toi chastier ai ceste bourde trouvee.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ne vos mestier aprendre si que on me bati”</t>
+          <t>Voir, tu es mon droit filz, plus t'ainme que rien nee.”</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Li autres dist “Compains avenu m'est ainsi”</t>
+          <t>L'anfant li dist: “Dous sire: par la Vierge honnoree,</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Et a dit a son frere “Lëaument vous afi</t>
+          <t>L'autre enfant respondi: “Compains, vous l'orrés ja.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Que je ne vous faudrai jamais pour nulle rien”</t>
+          <t>Ne vos mestier aprendre, si que on me bati.”</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Ainsi s'acompaingnierent mes il se tindrent bien</t>
+          <t>Li autres dist: “Compains, avenu m'est ainsi.”</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>720</v>
+        <v>701</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Il dist “Je leur pardoins pour Dieu a ceste fois</t>
+          <t>Et a dit a son frere: “Lëaument vous afi</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mes je weil qu'il demeurent en mon hostel un mois”</t>
+          <t>Que je ne vous faudrai jamais pour nulle rien.”</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>L'un des enfans li dist qui estoit le plus sage</t>
+          <t>Ainsi s'acompaingnierent; mes il se tindrent bien</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>748</v>
+        <v>720</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Il li fiet une foire ou j'ai moult gaagnié</t>
+          <t>Il dist: “Je leur pardoins, pour Dieu, a ceste fois;</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Se pour moi i alez bien en serés paié”</t>
+          <t>Mes je weil qu'il demeurent en mon hostel un mois.”</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Quant le bon roy Guillaume son parler escouta</t>
+          <t>L'un des enfans li dist, qui estoit le plus sage:</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>A qui cel cor estoit car souef me nourri</t>
+          <t>Il li siet une foire ou j'ai moult gaagnié.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ce fu le roy Guillaume dieus li face merci”</t>
+          <t>Se pour moi i alez, bien en serés paié.”</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Quant le roy l'entendi si li a respondu</t>
+          <t>Quant le bon roy Guillaume son parler escouta,</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Et puis s'entredissoient “Cel marchéant que la voy</t>
+          <t>A qui cel cor estoit, car souef me nourri:</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Resemble au roy Guillaume par la foi qu'a Dieu doi”</t>
+          <t>Ce fu le roy Guillaume, Dieus li face merci!”</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Tant ala la parole du roi qu'oiez conter</t>
+          <t>Quant le roy l'entendi, si li a respondu:</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Se le voir en savon je et les barons tous</t>
+          <t>Et puis s'entredissoient: “Cel marcheant que la voy</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Obeïron en l'eure devotement a vous”</t>
+          <t>Resemble au roy Guillaume, par la foi qu'a Dieu doi.”</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Quant l'oncle ot le neveu si faitement parler</t>
+          <t>Tant ala la parole du roi qu'oiez conter,</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Je ne sui pas venus ci endroit pour moquier</t>
+          <t>Se le voir en savon, je et les barons tous</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Mes pour vendre les biens quar j'ai fait amener”</t>
+          <t>Obeïron en l'eure devotement a vous.”</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Le roy ot moult grant doute qu'il ne fust avissez</t>
+          <t>Quant l'oncle ot le neveu si faitement parler,</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>D'ofisse m'osteroit bien connois sa maniere</t>
+          <t>Je ne sui pas venus ci endroit pour moquier,</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Fous est qui si haut monte qu'il en trebuche arriere”</t>
+          <t>Mes pour vendre les biens quar j'ai fait amener.”</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>A ce mot le neveu de son oncle parti</t>
+          <t>Le roy ot moult grant doute qu'il ne fust avissez,</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>J'aurai de vostre doi seulement cel anel</t>
+          <t>D'ofisse m'osteroit: bien connois sa maniere.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Et si venrés disner lassus en mon chastel”</t>
+          <t>Fous est qui si haut monte qu'il en trebuche arriere.”</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Le roy ot moult grant duel quant ce mot endenti</t>
+          <t>A ce mot le neveu de son oncle parti.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Puis li dist “Chiere dame pour Dieus qui maint la sus</t>
+          <t>J'aurai de vostre doi seulement cel anel,</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>De quoi est vostre cuer si forment esperdus”</t>
+          <t>Et si venrés disner lassus en mon chastel.”</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>La dame li dist “Sire se Jhesu me pourvoie</t>
+          <t>Le roy ot moult grant duel quant ce mot entendi,</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Lié sui quant vous tien quar moult vous desirroie</t>
+          <t>Une moult noble dame que j'avoie espoussee,</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Quar de mes .ii. biax filz ne sai ne vent ne voie”</t>
+          <t>Et perdi deus enfans qu'elle ot d'une ventree.”</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Tantost que li rois sot que c'estoit la roine</t>
+          <t>Quant la dame l'oÿ, errant chey paumee,</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Qu'allons en Angleterre le pais renonmé</t>
+          <t>Puis li dist: “Chiere dame, pour Dieus qui maint la sus,</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Pres de vint et quatre ans ai en essil esté”</t>
+          <t>De quoi est vostre cuer si forment esperdus?”</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>On fist les table metre quant le roy ot disné</t>
+          <t>La dame li dist: “Sire, se Jhesu me pourvoie,</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>856</v>
+        <v>840</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>C'un ruisiau qui i est pour Dieu ne passez mie</t>
+          <t>Lie sui quant vous tien, quar moult vous desirroie,</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>C'est la terre d'un conte qui trop fort me guerrie”</t>
+          <t>Quar de mes deus biax filz ne sai ne vent ne voie.”</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Le roi li a dist “Dame ne vous en doutez ja</t>
+          <t>Tantost que li rois sot que c'estoit la roïne,</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Le roi li a dist “Dame ne vous en doutez ja</t>
+          <t>Qu'allons en Angleterre, le païs renonmé.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>N'irai gueres avant que retournerai ca”</t>
+          <t>Pres de vint et quatre ans ai en essil esté.”</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Le roi et ces veneurs .I. porc sanglier leva</t>
+          <t>On fist les table metre. Quant le roy ot disné,</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Qui li crierent “Mestre vous passerés par ci</t>
+          <t>C'un ruisiau qui i est, pour Dieu, ne passez mie:</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Par foi vous valez mort se vous ne vous rendez”</t>
+          <t>C'est la terre d'un conte qui trop fort me guerrie.”</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Lors le roy respondi “Voir s'a moi main metez</t>
+          <t>Le roi li a dist: “Dame, ne vous en doutez ja;</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Lors le roy respondi “Voir s'a moi main metez</t>
+          <t>Le roi li a dist: “Dame, ne vous en doutez ja;</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Je vous jure sus sains vous en repentirés”</t>
+          <t>N'irai gueres avant, que retournerai ca.”</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>L'un des chevaliers dist “Tu es un fol prouvés</t>
+          <t>Le roi et ces veneurs un porc sanglier leva;</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>En nostre dangier es et nous vas menacent</t>
+          <t>Qui li crierent: “Mestre, vous passerés par ci;</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Pres va que ne te fier de mon espie tranchant”</t>
+          <t>Par foi, vous valez mort, se vous ne vous rendez.”</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Le roy leur respondi “Au mains sousfrés vous tant</t>
+          <t>Lors le roy respondi: “Voir, s'a moi main metez,</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Par un leu me fu un de mes enfans ravis</t>
+          <t>Lors le roy respondi: “Voir, s'a moi main metez,</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Et en un batelet sur mer l'autre fu prins”</t>
+          <t>Je vous jure sus sains, vous en repentirés.”</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Quant les .ii. chevalier oirent la raison</t>
+          <t>L'un des chevaliers dist: “Tu es un fol prouvés.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>886</v>
+        <v>870</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Rescous fui a un leu qui m'avoit engoulé</t>
+          <t>En nostre dangier es, et nous vas menacent!</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Ou pan d'unne viez cote estoies enuelopé”</t>
+          <t>Pres va que ne te fier de mon espie tranchant.”</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>L'autre chevalier dist “Voir et je fui trouvé</t>
+          <t>Le roy leur respondi: “Au mains sousfrés vous tant</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>En un batel sur mer si comme on m'a conté</t>
+          <t>Par un leu me fu un de mes enfans ravis,</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Ou pan d'une viés cote envelopés estoie”</t>
+          <t>Et en un batelet sur mer l'autre fu prins.”</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Quant le roi les oÿ au cuer en ot grant joie</t>
+          <t>Quant les deus chevalier oïrent la raison,</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Puis a dit “Biaus enfans se les pieces vëoie</t>
+          <t>Rescous fui a un leu qui m'avoit engoulé;</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ou couchai mes enfans moult bien les connoistroie”</t>
+          <t>Ou pan d'unne viez cote estoies envelopé.”</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>S'un des enfans a dit “Se venez avec moy</t>
+          <t>L'autre chevalier dist: “Voir, et je fui trouvé</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>S'un des enfans a dit “Se venez avec moy</t>
+          <t>En un batel sur mer, si comme on m'a conté;</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>La piece ou fu couchié vous mousterrai par foy”</t>
+          <t>Ou pan d'une viés cote envelopés estoie.”</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>L'autre chevalier dist “Par la foi qu'a Dieu doy</t>
+          <t>Quant le roi les oÿ, au cuer en ot grant joie;</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>L'autre chevalier dist “Par la foi qu'a Dieu doy</t>
+          <t>Puis a dit: “Biaus enfans, se les pieces vëoie</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Bien sai ou est la moie freres sommes en doy”</t>
+          <t>Ou couchai mes enfans, moult bien les connoistroie.”</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Les .ii. freres menerent leur pere ciés le conte</t>
+          <t>S'un des enfans a dit: “Se venez avec moy,</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Or sui je tout certain que ce sont les .ii. pans</t>
+          <t>S'un des enfans a dit: “Se venez avec moy,</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Que tranchai de ma cote pour couchier mes enfans”</t>
+          <t>La piece ou fu couchié vous mousterrai par foy.”</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Moult furent les .ii. freres en leurs cuers tres joians</t>
+          <t>L'autre chevalier dist: “Par la foi qu'a Dieu doy,</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>911</v>
+        <v>896</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Bien sai que pour moi est en male soupecon</t>
+          <t>L'autre chevalier dist: “Par la foi qu'a Dieu doy,</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Se li avez mesfait requéres li pardon”</t>
+          <t>Bien sai ou est la moie; freres sommes endoy.”</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Les enfans respondirent “Vostre commant feron”</t>
+          <t>Les deus freres menerent leur pere ciés le conte</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75">
+        <v>903</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Or sui je tout certain que ce sont les deus pans</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Que tranchai de ma cote pour couchier mes enfans.”</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Moult furent les deus freres en leurs cuers tres joians;</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>911</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Bien sai que pour moi est en male soupecon.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Se li avez mesfait, requéres li pardon.”</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Les enfans respondirent: “Vostre commant feron.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
         <v>926</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Que jamés pié de terre de sa mer ne tendra</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>En Angleterre iron ou roine sera”</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Que jamés pié de terre de sa mer ne tendra.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>En Angleterre iron ou roïne sera.”</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>Adont le roy englois par message manda</t>
         </is>
@@ -3888,9 +4500,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3924,17 +4536,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Moult est plaisant et belle; fille au duc de Bourgoigne</t>
+          <t>Moult est plaisant et belle, fille au duc de Bourgoigne;</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Se vous la demandez; vous l'avrez sanz essoigne”</t>
+          <t>Se vous la demandez vous l'avrez sanz essoigne.”</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lors respondi le duc; “Ci a bonne besoingne.”</t>
+          <t>Lors respondi le duc: “Ci a bonne besoingne.”</t>
         </is>
       </c>
     </row>
@@ -3944,17 +4556,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aie a femme qu'a vous charnelle compaignie</t>
+          <t>Aie a femme qu'a vous charnelle compaignie,</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Se vous ne trespassez; mais ne le desir mie”</t>
+          <t>Se vous ne trespassez, mais ne le desir mie.”</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>La ducesse l'oÿ; si dist a voiz serie.</t>
+          <t>La ducesse l'oÿ si dist a voiz serie:</t>
         </is>
       </c>
     </row>
@@ -3964,17 +4576,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Puis que il ne me veult nus enfanz envoier.</t>
+          <t>Puis que il ne me veult nus enfanz envoier,</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Si m'en envoit le dyable se il m'en puet aidier.”</t>
+          <t>Si m'en envoit le dyable, se il m'en puet aidier.”</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Onques mais ne dist mot; qui li coustat tant chier</t>
+          <t>Onques mais ne dist mot qui li coustat tant chier;</t>
         </is>
       </c>
     </row>
@@ -3984,17 +4596,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cil vous plaist que j'engendre enfant en ceste dame</t>
+          <t>C'il vous plaist que j'engendre enfant en ceste dame,</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Veilliez que il vous serve au sauvement de s'ame”</t>
+          <t>Veilliez que il vous serve au sauvement de s'ame.”</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>La duchesse parla. et dist com fole femme</t>
+          <t>La duchesse parla et dist com fole femme:</t>
         </is>
       </c>
     </row>
@@ -4004,17 +4616,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Puis que Diex n'a puissance que nus enfans nous doint</t>
+          <t>Puis que Diex n'a puissance que nus enfans nous doint,</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Je le doins au dëable s'en ai conceu point”</t>
+          <t>Je le doins au deable, s'en ai conceü point.”</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>L'anemi l'oÿ bien. qui pluseurs maus conjoint</t>
+          <t>L'anemi l'oÿ bien qui pluseurs maus conjoint;</t>
         </is>
       </c>
     </row>
@@ -4024,17 +4636,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>“Lasse d'avoir enfant avoie grant mestier</t>
+          <t>“Lasse, d'avoir enfant avoie grant mestier,</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Voir grant desir avoie de ma mort auancier”</t>
+          <t>Voir grant desir avoie de ma mort avancier.”</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>En tel destresce fu; pres d'un mois tout entier</t>
+          <t>En tel destresce fu pres d'un mois tout entier.</t>
         </is>
       </c>
     </row>
@@ -4044,17 +4656,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A haute voiz disoient “Fuions ent en maison</t>
+          <t>A haute voiz disoient: “Fuions ent en maison,</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vesci Robert le dëable en sa main .i. baston”</t>
+          <t>Vesci Robert le deable, en sa main un baston!”</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Le commun des enfanz le sournon li donna.</t>
+          <t>Le commun des enfanz le sournon li donna,</t>
         </is>
       </c>
     </row>
@@ -4064,17 +4676,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Et li a dit “Biax filz temps est des ore mais</t>
+          <t>Et li a dit: “Biax filz, temps est des ore mais</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Que soiez mis a lettre vos livres est touz prés”</t>
+          <t>Que soiez mis a lettre, vos livres est touz pres.”</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>On li bailla .i. maistre qui estoit biau vallez</t>
+          <t>On li bailla un maistre qui estoit biau vallez.</t>
         </is>
       </c>
     </row>
@@ -4084,17 +4696,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Car jamais clerc ne prestre le mien cuer n'amera</t>
+          <t>Car jamais clerc ne prestre le mien cuer n'amera.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Je vous ai mon coutel fait sentir en apert”</t>
+          <t>Je vous ai mon coutel fait sentir en apert.”</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Le clerc ne vesqui gaires ainz morut sanz desert</t>
+          <t>Le clerc ne vesqui gaires, ainz morut sanz desert.</t>
         </is>
       </c>
     </row>
@@ -4104,17 +4716,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Que vous adoubissiez vostre filz qui est fors</t>
+          <t>Que vous adoubissiez vostre filz qui est fors.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Je croi s'est chevaliers qu'il s'avisera lors”</t>
+          <t>Je croi, s'est chevaliers, qu'il s'avisera lors.”</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Et le duc respondi “Dame je m'i acors.</t>
+          <t>Et le duc respondi: “Dame, je m'i acors,</t>
         </is>
       </c>
     </row>
@@ -4124,1077 +4736,1137 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ne sai que ce sera j'ai grant duel de son cors</t>
+          <t>Ne sai que ce sera; j'ai grant duel de son cors.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Il n'entent qu'a mal faire j'en sui touz esbahiz”</t>
+          <t>Il n'entent qu'a mal faire, j'en sui touz esbahiz.”</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A une Penthecouste; qui sont gent esjoiz</t>
+          <t>A une Penthecouste, qui sont gent esjoiz,</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Son pere li a dit “Filz soié a Dieu enclin.</t>
+          <t>Pour tant que mes bons face par Dieu qui sus tous vaut.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Et soustenez l'eglyse. si tenrez bonne fin.”</t>
+          <t>Je ne deporterai aus armes bas ne haut.”</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Robert ot la colee mais il dist sanz latin</t>
+          <t>La veille bien matin d'un jour de Penthecouste</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Les seigneurs vindrent ci pour toi porter hounour</t>
+          <t>Son pere li a dit: “Filz, soié a Dieu enclin</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Or les as mehaigniz et occis a dolour”</t>
+          <t>Et soustenez l'eglyse, si tenrez bonne fin.”</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Lors Robert le dëable; respondi par folour</t>
+          <t>Robert ot la colee, mais il dist sanz latin,</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Puis que sui chevalier; aus moinnes ferai haire</t>
+          <t>Les seigneurs vindrent ci pour toi porter hounour,</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ne leur lairai joiaus ne riche saintuaire”</t>
+          <t>Or les as mehaigniz et occis a dolour.”</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Des mos que Robert dit fu dolans li preudons</t>
+          <t>Lors Robert le deable respondi par folour:</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Prier estuet que Diex li envoit courte vie.</t>
+          <t>Puis que sui chevalier, aus moinnes ferai haire,</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Car s'il vit longuement normendie est honnie.”</t>
+          <t>Ne leur lairai joiaus ne riche saintuaire.”</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Avec lui ne mena que murdriers et banis</t>
+          <t>Des mos que Robert dit fu dolans li preudons;</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lors a dist a sa gent “Loiaument vous plevis</t>
+          <t>Prier estuet que Diex li envoit courte vie,</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>S'asez avons fait mal encor ferons nous pis”</t>
+          <t>Car s'il vit longuement, Normendie est honnie.”</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Lors parmi Normendie prist fort a chevauchier</t>
+          <t>Avec lui ne mena que murdriers et banis.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Je croi c'est .i. dëable il ne croit pas en Dieu</t>
+          <t>Lors a dist a sa gent: “Loiaument vous plevis:</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ne prise homme ne femme une goute de sieu.”</t>
+          <t>S'asez avons fait mal, encor ferons nous pis.”</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Un autre dist au duc “Sire c'est grant folie</t>
+          <t>Lors parmi Normendie prist fort a chevauchier.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Que sousfrez que vos filz soit de tele estoutie</t>
+          <t>Je croi c'est un deable, il ne croit pas en Dieu,</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ne puet trouver preudomme en toute Normendie.”</t>
+          <t>Ne prise homme ne femme une goute de sieu.”</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Qui ne soit desrobez ne moustier n'abaie</t>
+          <t>Un autre dist au duc: “Sire, c'est grant folie,</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nos filles et nos nieces trop est grant li difames</t>
+          <t>Ne puet trouver preudomme en toute Normendie</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>N'en poons plus souffrir se Diex nous saut les ames”</t>
+          <t>Qui ne soit desrobez, ne moustier n'abaie.”</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Le duc prist a plourer. et dist “Sire .saint James</t>
+          <t>Mais puis ne demoura pas moult longue saison</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Par devant touz vos hommes le mal li deffendez</t>
+          <t>Nos filles et nos nieces; trop est grant li difames,</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Et s'il vous contralie em prison le metez”</t>
+          <t>N'en poons plus souffrir, se Diex nous saut les ames.”</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Le duc dist “Je m'acort a ce que me loez”</t>
+          <t>Le duc prist a plourer et dist: “Sire saint James,</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>“Vous endormirez miex demain en vostre lit</t>
+          <t>Par devant touz vos hommes, le mal li deffendez,</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mais dites a mon pere que c'est en son despit”</t>
+          <t>Et s'il vous contralie em prison le metez.”</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Vers le duc retournerent les messages briement</t>
+          <t>Le duc dist: “Je m'acort a ce que me loez.”</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Estre poez certains n'a talent de venir.</t>
+          <t>“Vous endormirez miex demain en vostre lit;</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Droit si veult et requiert c'on le face banir”</t>
+          <t>Mais dites a mon pere que c'est en son despit.”</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Adont fu fait le cri tantost sanz alentir.</t>
+          <t>Vers le duc retournerent les messages briement</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ne voudroie plus vivre mais que tous hauz tondus</t>
+          <t>Estre poez certains n'a talent de venir.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Qui sont parmi le monde fussent ainssi tenus”</t>
+          <t>Droit si veult et requiert c'on le face banir.”</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Adonques est Robers de l'ermitage issus</t>
+          <t>Adont fu fait le cri tantost sanz alentir.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Robert dist en son cuer “Voir je puis bien veir</t>
+          <t>Ne voudroie plus vivre mais que tous hauz tondus</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Que le pueple me het. si fait Dieu sanz mentir”</t>
+          <t>Qui sont parmi le monde fussent ainssi tenus.”</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>A terre descendi. mais nus n'osa venir</t>
+          <t>Adonques est Robers de l'ermitage issus.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Que je sui si tres plains de toutes mauvaistiez</t>
+          <t>Robert dist en son cuer: “Voir, je puis bien veir</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>De vous ou de mon pere vient je croi li pechiez”</t>
+          <t>Que le pueple me het, si fait Dieu sanz mentir.”</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Quant la dame l'oÿ. cheoir li vout aus piez</t>
+          <t>A terre descendi, mais nus n'osa venir</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Robert respondi “Dame pourquoi vous tueroie</t>
+          <t>Que je sui si tres plains de toutes mauvaistiez,</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>J'ai assez fait de mal encore pis feroie”</t>
+          <t>De vous ou de mon pere vient, je croi, li pechiez.”</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>La duchesse dist “Filz certes la coupe est moie</t>
+          <t>Quant la dame l'oÿ, cheoir li vout aus piez;</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>D'avoir l'ame de moi mais il ne l'avront mie</t>
+          <t>Robert respondi: “Dame, pourquoi vous tueroie?</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Prendre me faut conseil comment el soit garie”</t>
+          <t>J'ai assez fait de mal; encore pis feroie.”</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Lors a dit a sa mere “Madame je vous prie</t>
+          <t>La duchesse dist: “Filz, certes la coupe est moie</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Le sauvement de m'ame laz tout le cuer me serre</t>
+          <t>D'avoir l'ame de moi, mais il ne l'avront mie.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>De ce qu'aus sains preudommes ai touz jourz eü guerre”</t>
+          <t>Prendre me faut conseil comment el soit garie.”</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Robert tout em plourant sus son cheval monta</t>
+          <t>Lors a dit a sa mere: “Madame, je vous prie</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S'il s'en va qu'il retorne jamais en Normendie</t>
+          <t>Le sauvement de m'ame. Laz, tout le cuer me serre</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Car tuer se fera se Dieu n'en a merci”</t>
+          <t>De ce qu'aus sains preudommes ai touz jourz eü guerre.”</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Le duc dist son voloir mais n'ala mie ainssi</t>
+          <t>Robert tout em plourant sus son cheval monta,</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Car on ne puet dembler a bonne fin venir</t>
+          <t>Au mauvais le donnai, ce fu grant desmesure;</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Aler m'en veul a Romme mes pechiez regehir”</t>
+          <t>Jamais de m'amera, car bien y a droiture.”</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>L'un des larrons parla; et dist sanz alentir</t>
+          <t>En tant que la duchoise faisoit dolour pleniere</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Criez a Dieu merci et il vous sera dous</t>
+          <t>S'il s'en va, qu'il retorne jamais en Normendie;</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ce n'es mie maistrise d'estre touz jourz mauvais”</t>
+          <t>Car tuer se fera, se Dieu n'en a merci.”</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>L'un des larrons dist “Sire ne m'en parlez jamais</t>
+          <t>Le duc dist son voloir mais n'ala mie ainssi,</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Puis leur dist en moquant “Endormant vous tenez</t>
+          <t>Car on ne puet d'embler a bonne fin venir.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Je croi des ore mais preudes hommez serez”</t>
+          <t>Aler m'en veul a Romme mes pechiez regehir.”</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Robert vouloit bouter le feu en sa maison</t>
+          <t>L'un des larrons parla et dist sanz alentir:</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>“Je vous requier merci pour Dieu omnipotent</t>
+          <t>Criez a Dieu merci et il vous sera dous.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Car je vous ai a tort par plusieurs foiz grevez”</t>
+          <t>Ce n'es mie maistrise d'estre touz jourz mauvais.”</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Puis a dit a l'abé “Biau sire car alez</t>
+          <t>L'un des larrons dist: “Sire, ne m'en parlez jamais.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Moult grant tresor y a qu'ai tolu et ravi</t>
+          <t>Puis leur dist en moquant: “Endormant vous tenez,</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Qu'a ceuz a qui estoit soit adroit departi.”</t>
+          <t>Je croi des ore mais preudes hommez serez.”</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Robert fu herbergiez laiens celle nuitie</t>
+          <t>Robert vouloit bouter le feu en sa maison,</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>498</v>
+        <v>461</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Onques Caym ne fist herodes ne Judas</t>
+          <t>“Je vous requier merci, pour Dieu omnipotent,</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Tant de mauz comme a fait cest dolereus cors laz”</t>
+          <t>Car je vous ai a tort par plusieurs foiz grevez.”</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Quant le pappe l'oÿ. si li a dit em bas</t>
+          <t>Puis a dit a l'abé: “Biau sire, car alez,</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>On m'apele Robert; sire non ai de dëable</t>
+          <t>Moult grant tresor y a, qu'ai tolu et ravi,</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Filz au duc des Normans qui est moult honorable”</t>
+          <t>Qu'a ceuz a qui estoit soit adroit departi.”</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Lors se seigna le pappe. du pere esperitable</t>
+          <t>Robert fu herbergiez laiens celle nuitie.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Je te conjur de Dieu le pere tout puissant</t>
+          <t>Onques Caym ne fist, Herodes ne Judas,</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Que ne me faces mal n'a nule riens vivant”</t>
+          <t>Tant de mauz comme a fait cest dolereus cors laz.”</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Adont s'agenoulla. robert et joint les mains</t>
+          <t>Quant le pappe l'oÿ, si li a dit em bas:</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Que de contricion est mon cuer si atains</t>
+          <t>On m'apele Robert, sire non ai de deabl,</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Que ne feroie mal ne pour plus ne por mains.”</t>
+          <t>Filz au duc des Normans, qui est moult honorable.”</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Adont s'asist le pappe qui fu sages et dous</t>
+          <t>Lors se seigna le pappe du pere esperitable</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Et je sui tout certain bien conseilliez seras</t>
+          <t>Je te conjur de Dieu le Pere tout puissant</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>On ne scet plus preudomme dessouz le firmament.”</t>
+          <t>Que ne me faces mal n'a nule riens vivant.”</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Robert li dist “ saint pere g'irai moult doucement</t>
+          <t>Adont s'agenoulla Robert et joint les mains</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Robert li dist “ saint pere g'irai moult doucement</t>
+          <t>Que de contricion est mon cuer si atains</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Diex veille que par lui truisse mon sauvement”</t>
+          <t>Que ne feroie mal ne pour plus ne por mains.”</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>A Romme jut la nuit jusqu'a l'ajournement</t>
+          <t>Adont s'asist le pappe, qui fu sages et dous,</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Et puis s'il plaist a Dieu qui de l'yaue fist vin</t>
+          <t>Et, je sui tout certain, bien conseilliez seras.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Bien vous conseillerai demain assez matin”</t>
+          <t>On ne scet plus preudomme dessouz le firmament.”</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Robert qui soloit estre plus fel que .i. mastin</t>
+          <t>Robert li dist: “Saint pere, g'irai moult doucement;</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Jusqu'a tant que Diex qui envoie touz biens</t>
+          <t>Robert li dist: “Saint pere, g'irai moult doucement;</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Par toi li face dire que sa penance est faite”</t>
+          <t>Diex veille que par lui truisse mon sauvement.”</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>L'ermite se leva qui forment se rehete</t>
+          <t>A Romme jut la nuit jusqu'a l'ajournement</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ne que ne parlerez a creature nee.</t>
+          <t>Et puis s'il plaist a Dieu, qui de l'yaue fist vin,</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Se je nel vous commande qu'a Dieu plaist et agree”</t>
+          <t>Bien vous conseillerai demain assez matin.”</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Quant Robert l'entendi pas ne fu mal soigneux</t>
+          <t>Robert, qui soloit estre plus fel que un mastin,</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Et dist “Je vous mercie dous peres glorieux.</t>
+          <t>Jusqu'a tant que Diex qui envoie touz biens</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Quant pour tant serai quite de mes pechiez mortieux”</t>
+          <t>Par toi li face dire que sa penance est faite.”</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Tres douce gent Robert se parti de l'ermite</t>
+          <t>L'ermite se leva qui forment se rehete.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>599</v>
+        <v>568</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mais il me samble fol c'est domage de li</t>
+          <t>Ne que ne parlerez a creature nee,</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Donnez li a mengier je veul qu'il soit servi”</t>
+          <t>Se je nel vous commande qu'a Dieu plaist et agree.”</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>On l'apella assez mais riens ne respondi</t>
+          <t>Quant Robert l'entendi, pas ne fu mal soigneux.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>694</v>
+        <v>572</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>“Je vous pri biax seignors que nous nous ensaions</t>
+          <t>Et dist: “Je vous mercie, dous Peres glorieux,</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Contre ces Sarrazins nostre droit deffendons”</t>
+          <t>Quant pour tant serai quite de mes pechiez mortieux.”</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Et il li respondirent. “Sire bien le voulons”</t>
+          <t>Tres douce gent, Robert se parti de l'ermite;</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>704</v>
+        <v>599</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Qui dist “Pren cest destrier que je yci t'amainne</t>
+          <t>Mais il me samble fol, c'est domage de li;</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Et si t'arme des armes qui sont blanches com laine”</t>
+          <t>Donnez li a mengier, je veul qu'il soit servi.”</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Robert n'osa parler mais sus li la croiz fist</t>
+          <t>On l'apella assez, mais riens ne respondi.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>728</v>
+        <v>624</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>A ame ne fait mal nient plus que s'il fust mors</t>
+          <t>Maintenant a tolu a cel chien le sien pain,</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Il est fol debonnaire et si croi qu'il soit fors”</t>
+          <t>Puis si l'en a rendu la moitié tout a plain.”</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Un autre chevalier. dist “Sire ne vous chaille</t>
+          <t>Lors donna l'en au chien pain et char et poisson,</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>731</v>
+        <v>694</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Hui fait avons la hors sus Paiens la bataille</t>
+          <t>“Je vous pri, biax seignors, que nous nous ensaions,</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Et il a fait la soue caiens o la merdaille”</t>
+          <t>Contre ces sarrazins nostre droit deffendons.”</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Le roy li respondi “Par foy vaille que vaille</t>
+          <t>Et il li respondirent: “Sire, bien le voulons.”</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>735</v>
+        <v>704</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Mais me saroit on dire qui fu le chevalier</t>
+          <t>Qui dist: “Pren cest destrier que je yci t'amainne,</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Qui nous a au jour d'ui; si bien venu aidier”</t>
+          <t>Et si t'arme des armes qui sont blanches com laine.”</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Et lors s'en vint la fille de son pere aprochier</t>
+          <t>Robert n'osa parler, mais sus li la croiz fist;</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>747</v>
+        <v>728</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Comment tendroit ce fol de chevaliers la route</t>
+          <t>A ame ne fait mal nient plus que s'il fust mors,</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Ne il n'avroit cheval ne armes c'est sanz doute”</t>
+          <t>Il est fol debonnaire et si croi qu'il soit fors.”</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>La pucelle se tut car son pere redoute</t>
+          <t>Un autre chevalier dist: “Sire, ne vous chaille;</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>764</v>
+        <v>731</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Qu'en agait vous metez et pensez desploitier</t>
+          <t>Hui fait avons la hors sus paiens la bataille</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Que sanz parler a nous il ne puist retourner”</t>
+          <t>Et il a fait la soue caiens o la merdaille.”</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>A ce mot sanz plus dire de Romme s'en issirent</t>
+          <t>Le roy li respondi: “Par foy, vaille que vaille,</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>777</v>
+        <v>735</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Li escrierent “Maistre tyrez a vous vo rene</t>
+          <t>Mais me saroit on dire qui fu le chevalier</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Et dites qui vous estes ne de con fait pais”</t>
+          <t>Qui nous a au jour d'ui si bien venu aidier?”</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Quant Robert les oÿ il fu touz esbahis</t>
+          <t>Et lors s'en vint la fille de son pere aprochier.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>810</v>
+        <v>747</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Et s'avra vostre fille qui est belle et parfaite</t>
+          <t>Comment tendroit ce fol de chevaliers la route?</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Mais qu'il moustre la plaie qui du fer li fu faite”</t>
+          <t>Ne il n'avroit cheval ne armes, c'est sanz doute.”</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>L'emperere li dist “Cest conseil bien me hete.</t>
+          <t>La pucelle se tut, car son pere redoute.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>812</v>
+        <v>764</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>L'emperere li dist “Cest conseil bien me hete.</t>
+          <t>Qu'en agait vous metez et pensez desploitier</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Car il me samble bon et gentil et honneste.”</t>
+          <t>Que sanz parler a nous il ne puist retourner.”</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Lors fu le cri criez tout par tout le pays</t>
+          <t>A ce mot sanz plus dire de Romme s'en issirent.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>844</v>
+        <v>777</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>“Sire” dist le traitre “N'en soiez esbahis</t>
+          <t>Li escrierent: “Maistre, tyrez a vous vo rene,</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Loial cuer ne faut point au fort a ses amis”</t>
+          <t>Et dites qui vous estes ne de con fait païs.”</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Le fer tendi au roy. et puis se trait avant</t>
+          <t>Quant Robert les oÿ il fu touz esbahis,</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>874</v>
+        <v>810</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Par sa bonté m'a Diex la parole rendue</t>
+          <t>Et s'avra vostre fille, qui est belle et parfaite,</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Par signes ne povoie de riens estre creue”</t>
+          <t>Mais qu'il moustre la plaie qui du fer li fu faite.”</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Li roys ot moult grant joie quant il l'a entendue</t>
+          <t>L'emperere li dist: “Cest conseil bien me hete.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>904</v>
+        <v>812</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Alez parler a lui. voir de riens ne m'esmaie</t>
+          <t>L'emperere li dist: “Cest conseil bien me hete.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Que du fer ne trouvez en sa cuisse la plaie”</t>
+          <t>Car il me samble bon et gentil et honneste.”</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Li roys et l'apostoile et pluseurs gens de bien</t>
+          <t>Lors fu le cri criez tout par tout le pays.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>909</v>
+        <v>844</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>L'emperere li dist “Biax douz amis cha vien</t>
+          <t>“Sire,” dist le traitre, “n'en soiez esbahis;</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Et me moustre ta cuisse par fine amour te pri”</t>
+          <t>Loial cuer ne faut point au fort a ses amis.”</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Robert prist .i. festu et joua descremie</t>
+          <t>Le fer tendi au roy et puis se trait avant,</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>915</v>
+        <v>874</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>De par Dieu vous commant qui en croiz fu penez</t>
+          <t>Par sa bonté m'a Diex la parole rendue;</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Que vous parlez a moi se pooir en avez”</t>
+          <t>Par signes ne povoie de riens estre creüe.”</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>A ce mot s'est Robert a reculons levez</t>
+          <t>Li roys ot moult grant joie quant il l'a entendue</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>926</v>
+        <v>904</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Vous povez bien parler sachiez en bonne foy</t>
+          <t>Alez parler a lui; voir de riens ne m'esmaie</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Que le douz Jhesucrist le vous mande par moi”</t>
+          <t>Que du fer ne trouvez en sa cuisse la plaie.”</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Robert s'agenoulla et dist “Glorieus roy</t>
+          <t>Li roys et l'apostoile et pluseurs gens de bien</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>932</v>
+        <v>909</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Vrai Diex donnez moi grace par vos saintes pitiez</t>
+          <t>L'emperere li dist: “Biax douz amis, cha vien,</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Devons servir touz diz sanz faire mauvaistiez”</t>
+          <t>Et me moustre ta cuisse par fine amour te pri.”</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Le pueple ot moult joie quant Robert dut parler</t>
+          <t>Robert prist un festu et joua descremie;</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>981</v>
+        <v>915</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Car le seneschal s'est contre lui revelez</t>
+          <t>De par Dieu vous commant qui en croiz fu penez</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Avoir veult vostre femme de riens n'a autre envie.”</t>
+          <t>Que vous parlez a moi, se pooir en avez.”</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Robert li respondi “Voir il pense folie”</t>
+          <t>A ce mot s'est Robert a reculons levez.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
+        <v>926</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Vous povez bien parler, sachiez en bonne foy</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Que le douz Jhesucrist le vous mande par moi.”</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Robert s'agenoulla et dist: “Glorieus Roy,</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>932</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Vrai Diex, donnez moi grace, par vos saintes pitiez</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Devons servir touz diz sanz faire mauvaistiez.”</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Le pueple ot moult joie, quant Robert dut parler.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>981</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Car le seneschal s'est contre lui revelez.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Avoir veult vostre femme; de riens n'a autre envie.”</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Robert li respondi: “Voir, il pense folie.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
         <v>996</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Je ne coi que jamais; puis mauvais de toi truisse</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Mais ton loier avras aincois que le jour ysse”</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Robert moult courouciez; s'en vint au seneschal.</t>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Je ne croi que jamais puis mauvais de toi truisse,</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Mais ton loier avras aincois que le jour ysse.”</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Robert moult courouciez s'en vint au seneschal.</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D31"/>
   <sheetViews>
@@ -5838,7 +6510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -5873,7 +6545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -6108,7 +6780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -6230,236 +6902,6 @@
       <c r="C6" t="inlineStr">
         <is>
           <t>Pour ce es et seras en enfer; or t'y tiens.”</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>30</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>“Amis,” dit li mauves, “je vueil a toy parler;</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Tu t'ies rendus a moy, si me dois mult amer.”</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Et cil li respondi: “Bien povez commander;</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>71</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Et quant il sera fes fai des autres assez,</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Si que le gieu soit tost partout manifestés.”</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Et cil li respondi: “De ce pas ne doutez;</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>76</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Que partout le païs assez en liverray:</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Puis que tant puis mal fere, ja ne m'en fainderai.”</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Donc se depart de lui sans plus d'arrestement;</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>100</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Que m'en tollissiez mes qui vausist deus festus,</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Pour estre detrenchiez, ocis et confondus.”</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Li dé furent d'ivoire, de marbre li bellens;</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>68</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Asseetz ore un jour ou pople comunal</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Poës veer la bataille en monlaigne et en vale.”</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Le jour fu assis par un venderti</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>158</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Gentyl quer de roi, mercy vus requer;</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>De ma fole emprise me volez pardoner.”</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Doucement respount ly curtoise chevaler:</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>176</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mes ore ma espouse serrez appellé;</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>De touz qe sevent e saveront de la sollempneté.”</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Lors prist ly roi sa espouse de prisoun,</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>196</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Si vus ameneroy a ma grant cité,</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Ou vus troverez solace, tot biens a plenté.”</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Jeo prie Dieus nostre rois, chevaler alosee</t>
         </is>
       </c>
     </row>
@@ -6965,6 +7407,236 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>“Amis,” dit li mauves, “je vueil a toy parler;</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Tu t'ies rendus a moy, si me dois mult amer.”</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Et cil li respondi: “Bien povez commander;</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>71</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Et quant il sera fes fai des autres assez,</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Si que le gieu soit tost partout manifestés.”</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Et cil li respondi: “De ce pas ne doutez;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>76</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Que partout le païs assez en liverray:</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Puis que tant puis mal fere, ja ne m'en fainderai.”</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Donc se depart de lui sans plus d'arrestement;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Que m'en tollissiez mes qui vausist deus festus,</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pour estre detrenchiez, ocis et confondus.”</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Li dé furent d'ivoire, de marbre li bellens;</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>68</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Asseetz ore un jour ou pople comunal</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Poës veer la bataille en monlaigne et en vale.”</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Le jour fu assis par un venderti</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>158</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Gentyl quer de roi, mercy vus requer;</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>De ma fole emprise me volez pardoner.”</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Doucement respount ly curtoise chevaler:</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>176</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mes ore ma espouse serrez appellé;</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>De touz qe sevent e saveront de la sollempneté.”</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Lors prist ly roi sa espouse de prisoun,</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>196</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Si vus ameneroy a ma grant cité,</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ou vus troverez solace, tot biens a plenté.”</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Jeo prie Dieus nostre rois, chevaler alosee</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8750,6 +9422,921 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>48</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>N'aray autre mari; mout l'aime de coer fin,</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Dieus asoille son pere, qui de l'iauwe fist vin!”</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Le cors fu entierés; on donna le donnee.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>80</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Je vous pri, bielle fille, que faciés autrement</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Des plus haus dou païs vous demandent souvent.”</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>La fille ne prisoit si fais mos un denier,</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>96</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Je sai bien qu'il n'ara en toute la contree</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Nulle plus bielle damme, s'elle est bien atournee.”</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Li clercon retint bien cou que la damme dist;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>113</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mais ne finerai mais si sarai la nouvielle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Comment serai tant boine comme j'ai de biauté.”</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Atant vint au moustier de boine volenté;</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>128</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Il doit dou tout laisier des biens mondains la cure</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Et faire penitance, qui a le car soit sure.”</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>La damme du curet retint l'ensengnement,</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>136</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Je voel que mon fil soit de sa part asenés,</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Je voel de la moitié faire ma volenté.”</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>La damme fist doner a son fil sa partie;</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>174</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tres dous Dieus, tu avoies en cel païs tel non</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C'onques mais jovene fille, je croy, ne l'ot si bon.”</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Li fieus a Dieudonnee, qui puis fu mout sains hon,</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>202</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Car la biauté c'avoie est assés dur cangie,</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Car biauté sans bonté ne vaut mie une allie.”</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Ja orés com li fieus de la Vierge Marie</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>231</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Que je ne puis pour vous durer ne nuit ne jours;</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Se vous me refusés, ce sera grant folour.”</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Il respondi un mot dont puis ot grant dolour,</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>235</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Je say bien de ciertain, vilainement moroie,</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Et a bon droit seroit, car desiervit l'aroie.”</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Celle qui ot grant duel, dist: “Garcon, va te voie.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>246</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>“Sa mere avoit des gens mout boine renommee,</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Puis s'enfuï par nuit, ses fieus m'a encantee.”</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Li rois le crut mout bien. Sans nule demoree,</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>264</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pour cou qu'il ne vot pas avoecques li gesir,</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Jetés moy dou desiert, si te vient a plaisir.”</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Dieus l'oÿ, mais il fu ou desiert jusqu'atant</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>284</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mon cier fil et ma damme mout volentiers veroie,</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Point ne me connistront, morte quident que soie.”</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Au cemin se mist celle qui mout estoit muee.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>298</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>“En si faitte maniere que Dieus vous laist joïr</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>De le cose dou monde dont plus avés desir.”</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Quant la mere l'oï, si geta maint souspir,</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>305</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>S'en cest païs antast, forment fust resjoïe:</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>On sacrera son fil a evesque demain.”</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Dieudonee l'oÿ, de joie devint vain</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>310</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Et doucement li dist: “Suer, vous n'iestes pas saine,</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Vous venés d'aucun lieu ou avés souffiert paine.”</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Lors dist a sa cambriere: “Fai tos et si te paine</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>313</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>D'aaisier ceste famme, car elle est forment vaine.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Que Dieu me doinst encore ma fille retrouver.”</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>La meskine, qui ot fel le coer et amer</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>318</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>La cambouriere dist: “Couciés vous ci, truande,</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Car vous n'arés pas mon melleur vin ne viande.”</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Mais la sainte piersonne li dist: “Riens ne demande.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>335</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Que Dieus voelle ma fille, si li plaist, ramener;</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Par ta grant mauvaistié ne l'as pas fait souper.”</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Or commence biaus dis qui vora escouter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>346</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Parmi le main le prist et li dist: “Douce amie,</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Mal yestes hostelee et par fause main guie.”</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Dieudenee dist: “Damme, ne vous coureciés mie,</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>348</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Dieudenee dist: “Damme, ne vous coureciés mie,</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Vingt ans a que ne fuc a men gré hierbegie,”</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>La dame li dist: “Soer, voir envis vous lairoie</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>351</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>En tel point que vous yestes, afin que Dieus pourvoie</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Dieudenee, ma fille, dont ne puis avoir joie.”</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Sa fille respondi: “Damme, Dieus vous doinst joie!”</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>356</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mout a soufliert d'angoisse, je croi, depui se di;</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Vous arés de mes biens pour l'amisté de li.”</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>La damme de sa main apparilla le lit,</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>366</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Car povre mendiant en estragne païs</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ont assés de deffaute et oënt de lais dis.”</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Sa fille li dist: “Damme, li rois de paradis</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>377</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>En tel lieu que je puisse l'evesque regarder;</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Bien croi, se je le voy, que mieus il m'en sera.”</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Lors le mere a la fille de l'euwe presenta</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>382</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Il fu fis de ma fille qu'avons a tort pierdue,</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Bien croy qu'elle soit morte, quant n'est point revenue.”</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>A ce mot de la cambre en est la damme issue;</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>400</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Con bien que soie pau chi aval honneree:</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>T'ame et ton cors avoecq en aront grant saudee.”</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>La damme de la vois ot le corr esbahi;</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>432</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Faittes que g'i parolle et je vous ay convent</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>C'ores de Dieudonee nouvielle bien briement.”</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Lors la mere a sa fille respondi en plorant:</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>440</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Une bien povre femme qu'ier soir fis hosteler:</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Que Dieus vous doinst encore vo mere recouvrer.”</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>L'evesque Jehan dist: “Voir, volentiers iray,</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>443</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Mais je croi que ja mais ma mere ne veray;</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Quant de li me souvient, au coer grant doleur ay.”</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Lors li fieus viers la mere vint sans faire delay.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>457</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Et je prieray Dieu par devote pensee</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Qu'i vous doinst reveoir celle qui vous porta.”</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Quant l'evesque l'oÿ, un grant souspir geta,</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>467</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Et s'elle ne revient dedens un an entier,</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Je voel que soie mise dedens un grant brassier.”</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Lors quant son fil l'oÿ, fort prist a larmoyer,</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>470</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>En plorant dist il: “Damme, je ferai ton voloir,</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Que Dieus me doinst ma mere encore reveoir.”</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Il commanda a faire tantost sans remanoir</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>558</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Ciertes je ne creroie pour nesune raison</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Que mon fil euïst fait viers le roy traïson.”</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Lors s'endormi la dame en disant se raison.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>568</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Aras en paradis amoureuse kaiiere</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Et Jehan ton enfant, qui a devote chiere.”</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>La douce Dieudenee fu forment esbahie</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>576</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Qu'en oroie nouvieile asés procainement:</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Or est mes doés doublés, ses fis est a tourment!”</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>La fille vit sa mere qui tenrement plora;</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>603</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Or ay pis que devant, je ne sai par quel voie:</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A ce grant besoing chi, pri que vise te joie.”</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Or oyés le miracle; que Dieu vous l'otroit joie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>612</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Car on li a a tort la diestre main copee</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Et sa croce tolue; a Jhesu point n'agree.”</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>L'abé vint au moustier o ses moines courant;</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>635</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Ciertes n'est pas en vie, plus ne m'en arainiés;</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Se veoir le pooie, j'en seroie mout liés.”</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>La mere dist au fil: “Pas ne vous esmaiiés;</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>637</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>La mere dist au fil: “Pas ne vous esmaiiés;</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ains que passe sept jours le verés de vos yeus.”</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>L'evesque s'en parti, qui estoit mout songneus</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>650</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Nostre Sires vous mande que demain a midi</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Faura ta penitance, jeter te voet de chi.”</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Elle fu mout joieuse quant ce parler oÿ,</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>658</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Qu'a moy viegne parler et li di vraiement</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Qu'elle vera sa fille dedens l'aviesprement.”</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>La mesquine fist bien tos son commandement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>663</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Le rencluse me mande que dedens l'anuitier</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Trouverons Dieudonnee dont j'ai grant desirier.”</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>A ce mot dou saint cors est l'ame departie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>680</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Et si me prometoit qu'en vie le veroie:</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Elle me disoit voir, de li ai pau de joie.”</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Sains Jehans Bouce d'or, qui n'estoit pas vilains,</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9563,7 +11150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -9878,7 +11465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -10005,281 +11592,6 @@
       <c r="D6" t="inlineStr">
         <is>
           <t>Grant feste demena et grant lyesse</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>53</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Disoient l'un a l'autre: “Certainement, je cuit</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Que il couchent ensemble et gisent per a per.”</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Tant avint que saint Leu en ouÿ parler.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>71</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Devant que Dieu le pere qui sur tous est puissans</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Me rende mon anel, ains seré ponëans.”</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>En Beauvoisin ala ou demoura sept ans.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>95</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Qu'en si noble contree doivent tous biens faillir.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>De cy ne partiroy jusques a ton plesir!.”</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Lez chanoignes de Sens firent saint leu querir</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>122</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Seigneurs, il m'est avis que c'est yci l'anel</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A nostre archevesque, le sien estoit ytel.”</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Tous emsamble le virent, si leur semblast moult bel.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>132</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Dieu voult qui se remaigne, il est en Beauvoisis,</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Sus la riviere d'Oise a Serens moult servis.”</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Pour l'amour de la voys prindrent fort a chanter</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>145</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>“Jamez tant que je vive ne partiroy de cy,</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Si n'aroy vraie ensengne du tres dolx roys des roys.”</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>L'un dez seigneurs lui dist: “Sire, il est bien drois.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>155</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ne crut ne blé ne vin, ne savon le pechié.</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Sire, pour Dieu mercy, prengne vous en pitié.”</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Et saint Leu respondi: “Puis qu'il vous plest j'iré.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>175</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Comment vous estes vous si longuement tenu</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>De venir visiter vostre peuple menu?”</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>L'archevesque saint Leu si lui a repondu:</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>178</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>“Coulombe, belle suer, chascun si doit mater</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sa charongne pour Dieu servir et hounourer.”</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>A ces mos lez chanoignes l'alerent encontrer,</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>211</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Que cest monde ne voit point a tel desperance.</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>S'il vous ont courouché en feront penitance.”</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Or oés leż vertus du doux roy de puissance;</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>220</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>De mon mal ou qu'il soyient, ce le prengnent a gré,</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Qu'en l'autre ciecle soient leur pechié pardonné.”</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Li angres devant luy descendit des sains cieulx</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>228</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Se ainsy est, ne soient entechié de ton nom</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Que james en leur vie n'aront se bien nom.”</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>L'angre s'en est allé et saint Leu demoura.</t>
         </is>
       </c>
     </row>
@@ -10320,241 +11632,241 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Et si dit, quant fut mort, qu'au tiers jour ressourdi,</t>
+          <t>Disoient l'un a l'autre: “Certainement, je cuit</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ne prise Mahonmet nïent qu'un chien pourri.”</t>
+          <t>Que il couchent ensemble et gisent per a per.”</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Des ce que le tirant out les mes escoutez,</t>
+          <t>Tant avint que saint Leu en ouÿ parler.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Puis dit a ses serjans: “Faites toust, ci alez</t>
+          <t>Devant que Dieu le pere qui sur tous est puissans</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Querir Sebastïen et ci le m'amenez.”</t>
+          <t>Me rende mon anel, ains seré ponëans.”</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lez serjans s'en alerent tantoust sans contredit,</t>
+          <t>En Beauvoisin ala ou demoura sept ans.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Et aores Jhesu qui morut en pendent:</t>
+          <t>Qu'en si noble contree doivent tous biens faillir.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Se c'est voir, tu mourras a martire molt grant.”</t>
+          <t>De cy ne partiroy jusques a ton plesir!.”</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tantoust com le tirant out dites ces paroles,</t>
+          <t>Lez chanoignes de Sens firent saint leu querir</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Et c'est ici Mahom, et ici Saturnus:</t>
+          <t>Seigneurs, il m'est avis que c'est yci l'anel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Celx qui ne lez aorent sont dampnez et perdus.”</t>
+          <t>A nostre archevesque, le sien estoit ytel.”</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lors saint Sebastien respondi sans demour:</t>
+          <t>Tous emsamble le virent, si leur semblast moult bel.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Et si perdent les ames, de ce sui ge certain.</t>
+          <t>Dieu voult qui se remaigne, il est en Beauvoisis,</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N'est creance qui vaille la foy de sainte Yglise.”</t>
+          <t>Sus la riviere d'Oise a Serens moult servis.”</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Quant le tirant l'ouÿ, si li dist par faintise:</t>
+          <t>Pour l'amour de la voys prindrent fort a chanter</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chevaus, robes, deniers a ton voloeur aras</t>
+          <t>“Jamez tant que je vive ne partiroy de cy,</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Et te donray de terre assez plus que tu n'as.”</t>
+          <t>Si n'aroy vraie ensengne du tres dolx roys des roys.”</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Saint Sebastïen dit: “En vain tu te debas,</t>
+          <t>L'un dez seigneurs lui dist: “Sire, il est bien drois.”</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Qui muert en lui servant, molt bien li est rendu.</t>
+          <t>Ne crut ne blé ne vin, ne savon le pechié.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Car il est en la gloire qui est sans finement.”</t>
+          <t>Sire, pour Dieu mercy, prengne vous en pitié.”</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Quant le tyrant l'oÿ, sy en out grant tourment,</t>
+          <t>Et saint Leu respondi: “Puis qu'il vous plest j'iré.”</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Forment li escria: “Mauves glouton pullant,</t>
+          <t>Comment vous estes vous si longuement tenu</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Je te feray livrer a martire molt grant.”</t>
+          <t>De venir visiter vostre peuple menu?”</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Du grant courrouz qu'il out le fist nu despouller</t>
+          <t>L'archevesque saint Leu si lui a repondu:</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Et si m'a fet tout sain mes Diex qui est loyaus:</t>
+          <t>“Coulombe, belle suer, chascun si doit mater</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Celx qui en luy ne croient sont pires que pourciaus.”</t>
+          <t>Sa charongne pour Dieu servir et hounourer.”</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Du pueple mescreent se converti tout plain</t>
+          <t>A ces mos lez chanoignes l'alerent encontrer,</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>128</v>
+        <v>211</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mes tu trebucheras en la puant chaudiere</t>
+          <t>Que cest monde ne voit point a tel desperance.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>D'enfer, ou les dyables te feront lede chiere.”</t>
+          <t>S'il vous ont courouché en feront penitance.”</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Quant le saint out ce dit, les anges descendirent</t>
+          <t>Or oés leż vertus du doux roy de puissance;</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Et vivre le droit aige selonc cours de nature</t>
+          <t>De mon mal ou qu'il soyient, ce le prengnent a gré,</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nous t'en deprions touz de pensee neste et pure.”</t>
+          <t>Qu'en l'autre ciecle soient leur pechié pardonné.”</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Saint Sebastïen out pour Jhesu grief martire:</t>
+          <t>Li angres devant luy descendit des sains cieulx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>C'est “Qui voit la meson de son voysin ardoir</t>
+          <t>Se ainsy est, ne soient entechié de ton nom</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Pas ne doit en la sienne molt grant fiance avoir.”</t>
+          <t>Que james en leur vie n'aront se bien nom.”</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Saint Sebastïen vueille nous amez recevoir.</t>
+          <t>L'angre s'en est allé et saint Leu demoura.</t>
         </is>
       </c>
     </row>

--- a/outputs/a/quote_types/list_q_pa.xlsx
+++ b/outputs/a/quote_types/list_q_pa.xlsx
@@ -12,23 +12,24 @@
     <sheet name="A03 vie saint basille" sheetId="3" r:id="rId3"/>
     <sheet name="A04 vie saint christofle" sheetId="4" r:id="rId4"/>
     <sheet name="A05 vie sainte dieudonnee" sheetId="5" r:id="rId5"/>
-    <sheet name="A06 saint jean evangeliste" sheetId="6" r:id="rId6"/>
-    <sheet name="A07 vie saint jean paulus" sheetId="7" r:id="rId7"/>
-    <sheet name="A08 vie glorieux confesseur" sheetId="8" r:id="rId8"/>
-    <sheet name="A09 vie saint leu" sheetId="9" r:id="rId9"/>
-    <sheet name="A10 poines enfer" sheetId="10" r:id="rId10"/>
-    <sheet name="A11 vie saint sebastien" sheetId="11" r:id="rId11"/>
-    <sheet name="A12 miracle saint servais" sheetId="12" r:id="rId12"/>
-    <sheet name="A13 vie seint thibault" sheetId="13" r:id="rId13"/>
-    <sheet name="A16 guillaume angleterre" sheetId="14" r:id="rId14"/>
-    <sheet name="A17 robert deable" sheetId="15" r:id="rId15"/>
-    <sheet name="A18 richart sans peour" sheetId="16" r:id="rId16"/>
-    <sheet name="A19 elegy troyes" sheetId="17" r:id="rId17"/>
-    <sheet name="A20 vieillards tués" sheetId="18" r:id="rId18"/>
-    <sheet name="A21 mauvais riche homme" sheetId="19" r:id="rId19"/>
-    <sheet name="A22 jeu des dez" sheetId="20" r:id="rId20"/>
-    <sheet name="A23 roy avoit amie" sheetId="21" r:id="rId21"/>
-    <sheet name="A25 quatre sereurs" sheetId="22" r:id="rId22"/>
+    <sheet name="A06 vie saint gregoire" sheetId="6" r:id="rId6"/>
+    <sheet name="A07 saint jean evangeliste" sheetId="7" r:id="rId7"/>
+    <sheet name="A08 vie saint jean paulus" sheetId="8" r:id="rId8"/>
+    <sheet name="A09 vie glorieux confesseur" sheetId="9" r:id="rId9"/>
+    <sheet name="A10 vie saint leu" sheetId="10" r:id="rId10"/>
+    <sheet name="A11 poines enfer" sheetId="11" r:id="rId11"/>
+    <sheet name="A12 vie saint sebastien" sheetId="12" r:id="rId12"/>
+    <sheet name="A13 miracle saint servais" sheetId="13" r:id="rId13"/>
+    <sheet name="A14 vie seint thibault" sheetId="14" r:id="rId14"/>
+    <sheet name="A17 guillaume angleterre" sheetId="15" r:id="rId15"/>
+    <sheet name="A18 robert deable" sheetId="16" r:id="rId16"/>
+    <sheet name="A19 richart sans peour" sheetId="17" r:id="rId17"/>
+    <sheet name="A20 elegy troyes" sheetId="18" r:id="rId18"/>
+    <sheet name="A21 vieillards tués" sheetId="19" r:id="rId19"/>
+    <sheet name="A22 mauvais riche homme" sheetId="20" r:id="rId20"/>
+    <sheet name="A23 jeu des dez" sheetId="21" r:id="rId21"/>
+    <sheet name="A24 roy avoit amie" sheetId="22" r:id="rId22"/>
+    <sheet name="A26 quatre sereurs" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1447,6 +1448,281 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>53</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Disoient l'un a l'autre: “Certainement, je cuit</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Que il couchent ensemble et gisent per a per.”</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tant avint que saint Leu en ouÿ parler.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>71</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Devant que Dieu le pere qui sur tous est puissans</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Me rende mon anel, ains seré ponëans.”</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>En Beauvoisin ala ou demoura sept ans.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>95</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Qu'en si noble contree doivent tous biens faillir.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>De cy ne partiroy jusques a ton plesir!.”</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Lez chanoignes de Sens firent saint leu querir</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>122</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Seigneurs, il m'est avis que c'est yci l'anel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A nostre archevesque, le sien estoit ytel.”</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tous emsamble le virent, si leur semblast moult bel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>132</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dieu voult qui se remaigne, il est en Beauvoisis,</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Sus la riviere d'Oise a Serens moult servis.”</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Pour l'amour de la voys prindrent fort a chanter</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>145</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>“Jamez tant que je vive ne partiroy de cy,</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Si n'aroy vraie ensengne du tres dolx roys des roys.”</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>L'un dez seigneurs lui dist: “Sire, il est bien drois.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>155</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ne crut ne blé ne vin, ne savon le pechié.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Sire, pour Dieu mercy, prengne vous en pitié.”</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Et saint Leu respondi: “Puis qu'il vous plest j'iré.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>175</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Comment vous estes vous si longuement tenu</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>De venir visiter vostre peuple menu?”</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>L'archevesque saint Leu si lui a repondu:</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>178</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>“Coulombe, belle suer, chascun si doit mater</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sa charongne pour Dieu servir et hounourer.”</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>A ces mos lez chanoignes l'alerent encontrer,</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>211</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Que cest monde ne voit point a tel desperance.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>S'il vous ont courouché en feront penitance.”</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Or oés leż vertus du doux roy de puissance;</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>220</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>De mon mal ou qu'il soyient, ce le prengnent a gré,</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Qu'en l'autre ciecle soient leur pechié pardonné.”</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Li angres devant luy descendit des sains cieulx</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>228</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Se ainsy est, ne soient entechié de ton nom</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Que james en leur vie n'aront se bien nom.”</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>L'angre s'en est allé et saint Leu demoura.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1740,7 +2016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -2015,7 +2291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -2550,7 +2826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -2945,7 +3221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D77"/>
   <sheetViews>
@@ -3101,7 +3377,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>“Hé! roy, dist la roïne, vos amours fausses sont;</t>
+          <t>“Hé! roy,” dist la roïne, “vos amours fausses sont;</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4500,7 +4776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D68"/>
   <sheetViews>
@@ -5875,7 +6151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D31"/>
   <sheetViews>
@@ -6510,7 +6786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -6545,7 +6821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -6772,136 +7048,6 @@
       <c r="D11" t="inlineStr">
         <is>
           <t>Mout fu li rois joieus du preudom qu'ot trouvé,</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>30</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>“Dame,” s'a dit le riche, “ce mesel la sermonne,</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Je ne li donray mie une petite pomme.”</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ce respont le riche hom qui fu fel et puant:</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>47</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Et pour ce que je vueil ces autres chastier,</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Feray je ce mesel a mes chiens glatifier.”</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Son garscon appella, si les fait deslier,</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>52</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Qui par devant ma porte demaine tel cembel,</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Car ja de ma viande n'enportera morsel.”</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Et le glout sault avant et les deslie ysnel.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>93</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Que tu voises dire a la dame de maison</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Qu'elle te doinst de mes biens dont il y a foison.”</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Un anglre respondi: “Tu parles sans raison.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>104</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Souveingne toy du ladre a qui haras tez chiens,</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Pour ce es et seras en enfer; or t'y tiens.”</t>
         </is>
       </c>
     </row>
@@ -7407,7 +7553,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7441,77 +7587,92 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>“Amis,” dit li mauves, “je vueil a toy parler;</t>
+          <t>“Dame,” s'a dit le riche, “ce mesel la sermonne,</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tu t'ies rendus a moy, si me dois mult amer.”</t>
+          <t>Je ne li donray mie une petite pomme.”</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Et cil li respondi: “Bien povez commander;</t>
+          <t>Ce respont le riche hom qui fu fel et puant:</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Et quant il sera fes fai des autres assez,</t>
+          <t>Et pour ce que je vueil ces autres chastier,</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Si que le gieu soit tost partout manifestés.”</t>
+          <t>Feray je ce mesel a mes chiens glatifier.”</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Et cil li respondi: “De ce pas ne doutez;</t>
+          <t>Son garscon appella, si les fait deslier,</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Que partout le païs assez en liverray:</t>
+          <t>Qui par devant ma porte demaine tel cembel,</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Puis que tant puis mal fere, ja ne m'en fainderai.”</t>
+          <t>Car ja de ma viande n'enportera morsel.”</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Donc se depart de lui sans plus d'arrestement;</t>
+          <t>Et le glout sault avant et les deslie ysnel.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Que m'en tollissiez mes qui vausist deus festus,</t>
+          <t>Que tu voises dire a la dame de maison</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pour estre detrenchiez, ocis et confondus.”</t>
+          <t>Qu'elle te doinst de mes biens dont il y a foison.”</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Li dé furent d'ivoire, de marbre li bellens;</t>
+          <t>Un anglre respondi: “Tu parles sans raison.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>104</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Souveingne toy du ladre a qui haras tez chiens,</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Pour ce es et seras en enfer; or t'y tiens.”</t>
         </is>
       </c>
     </row>
@@ -7552,81 +7713,81 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Asseetz ore un jour ou pople comunal</t>
+          <t>“Amis,” dit li mauves, “je vueil a toy parler;</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Poës veer la bataille en monlaigne et en vale.”</t>
+          <t>Tu t'ies rendus a moy, si me dois mult amer.”</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Le jour fu assis par un venderti</t>
+          <t>Et cil li respondi: “Bien povez commander;</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gentyl quer de roi, mercy vus requer;</t>
+          <t>Et quant il sera fes fai des autres assez,</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>De ma fole emprise me volez pardoner.”</t>
+          <t>Si que le gieu soit tost partout manifestés.”</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doucement respount ly curtoise chevaler:</t>
+          <t>Et cil li respondi: “De ce pas ne doutez;</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mes ore ma espouse serrez appellé;</t>
+          <t>Que partout le païs assez en liverray:</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>De touz qe sevent e saveront de la sollempneté.”</t>
+          <t>Puis que tant puis mal fere, ja ne m'en fainderai.”</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lors prist ly roi sa espouse de prisoun,</t>
+          <t>Donc se depart de lui sans plus d'arrestement;</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Si vus ameneroy a ma grant cité,</t>
+          <t>Que m'en tollissiez mes qui vausist deus festus,</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ou vus troverez solace, tot biens a plenté.”</t>
+          <t>Pour estre detrenchiez, ocis et confondus.”</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jeo prie Dieus nostre rois, chevaler alosee</t>
+          <t>Li dé furent d'ivoire, de marbre li bellens;</t>
         </is>
       </c>
     </row>
@@ -7636,6 +7797,121 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>68</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Asseetz ore un jour ou pople comunal</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Poës veer la bataille en monlaigne et en vale.”</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Le jour fu assis par un venderti</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>158</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Gentyl quer de roi, mercy vus requer;</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>De ma fole emprise me volez pardoner.”</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Doucement respount ly curtoise chevaler:</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>176</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mes ore ma espouse serrez appellé;</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>De touz qe sevent e saveront de la sollempneté.”</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Lors prist ly roi sa espouse de prisoun,</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>196</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Si vus ameneroy a ma grant cité,</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ou vus troverez solace, tot biens a plenté.”</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Jeo prie Dieus nostre rois, chevaler alosee</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -10337,6 +10613,781 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>38</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Grant dueil eult en son cueur, puis dit: “Virge marie,</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>De si vilain pechié ne nous souvient il mie.”</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Puis appella sa seur et lui dist: “Doulce amie,</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>43</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Las, nous n'en avons eu ne talent ne pensee,</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mais a maint home a tort mauvaise renomee.”</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>C'est trop vilain pechié de mesdire d'autruy;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>55</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Il vault mieulx, ce me semble, que le pechié fachon,</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Qu'ilz allassent pour nous a tel dapnacïon.”</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Lors se sont eulx deux mis a ce grant pechié faire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>70</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pour parolle de gens, ne laissons a mourir.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Les deux cueurs de noz ventres deussent parmi partir.”</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Et elle respondi: “Dieu fera son plaisir.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>75</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>En ces tables d'ivire la besongne escripray,</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Comment vous l'engendrastes, et comment le portay.”</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Son frere respondi: “Je feray vo talent.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>87</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Et puis si le laissiez tout a par luy aller.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Au plaisir de Jhesus le comanda tourner.”</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Et cil print le panyer; en ung batel la mis,</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>107</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ung enfant a dedans, qui moult fait a priser;</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Oncques plus beau ne veismes selon nostre cuider.”</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>L'abbé print cest enffant; en son gueron l'a mis,</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>111</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>“He Dieu,” ce dist l'abbé, “porroit ce estre ung filz?</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Se cest ung enfant masle, bon poisson avez pris!”</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Lors fut desvelopé maintenant l'enfanchon;</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>115</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>“Il est de noble lieu; il portera mon nom.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Se Dieu plaist il sera encore moult preudom.”</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Gregoire lui mist nom le bon abbé vaillant,</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>129</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>“He Dieu,” se dist l'abbé, “dame sainte Marie,</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Com il sera preudon s'il maintient ceste vie!”</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Mais assez tost fut faitte d'eulx deux la departie,</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>161</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Et lui dist sagement: “Sire, qui est mon pere?</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Et me dittes aussi nouvelles de ma mere.”</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Lors cheÿ a l'abbé par les yeulx eaue clere;</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>169</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>“Helas!” ce dist Gregore, “Vecy trop grant douleur,</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Quant je suis engendré du frere et en la seur.”</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Son parain comanda a Dieu, par grant doulceur,</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>200</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Dist Gregoire: “Je suis d'un estrange contre,</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Et qui a ceste terre si laidement gastee.”</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Les bonnes gens lui ont la besongne contee;</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>214</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Je vous donray deniers et argent et or mier,</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Et si vous feray faire en brief temps chevalier.”</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Lors respondy Gregoire sans soy point delayer,</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>231</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Dittes luy, sil vous plaist, qu'il y soit le matin</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Adoubé de ses armes, la dehors soubz le pin.”</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Le baron s'en retourne, sans point de demouree,</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>235</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>“Se Dieu plaist,” dist Gregoire, “et la Vierge honnoree,</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Il sentira au cueur le trenchant de mespee.”</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Gregoire si fut fait celle nuyt chevalier;</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>251</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Je vous pry de bon cueur, doulz Pere espirital,</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Quil ne soit nesung homme qui lui puist faire mal.”</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Le conte se relieve dolent et yrascu;</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>259</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>“Mon cheual avez mort, c'est trop grant traÿson.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Mais bien tost en arez le vostre guerredon.”</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Lors a traite s'espee qui lui pent au costé;</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>277</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Vous venrez a la dame, les tors fais amender.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Vous n'y arez ja mal dont vous puissez garder.”</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Au chastel le mena sans gueres arrester.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>327</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Puis que vous m'espousastes estes trop empirez.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Dittes moy de quoy c'est, je vous prie, beau sire.”</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Lors se baissa Gregoire, qui ne lui voult pas dire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>337</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>“Mon filz m'a espousee! De dueil le cueur me fent.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Avecques moy sept ans a esté tellement.”</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Or commenche a gregoire sa paine et son tourment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>342</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Encore qui pis est: j'ay espousé ma mere.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Bien me deust on crever le cueur, c'est chose clere.”</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Sa mere vint a luy, comme femme desvee,</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>345</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>En disant: “Mon enfant, quel povre destinee!</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>En mes flans vous portay, et m'avez espousee.”</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Par destresse de cueur a terre chiet pasmee.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>359</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Qui me conseillera, car grant mestier en ay.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Hors du pays yray ma penitance faire.”</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Adonc recommenca la povre gent a braire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>365</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Qui par vous a esté nourrie et soustenue?</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ils doivent bien pleurer car leur vie est perdue.”</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Quat Gregoire les ot, tout le sanc luy remue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>370</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Je m'en yray toudis, trop me font de tourment;</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mais onc n'y oult celluy qui en voulsist noyent.”</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Or chevauce Gregoire, a Dieu a mis s'entente,</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>376</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Car plus grant pecheresse ne fut de mere nee.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Bien doy mal dire l'eure que je fus engendree.”</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Si grant dueil a au cueur, qu'a terre chiet pausmee,</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>402</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Se vous m'en scaviez, sire, aucun conseil donner,</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>J'yroye voulentiers ma penance endurer.”</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Lors l'oste respondi, qui n'estoit point vilain:</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>406</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Il ya vne roche, je vous dy de certain,</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Dont j'ay la chef ceans, vous verrez le remain.”</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Si tost que Gregoire eult son hoste oÿ parler,</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>411</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Mon cheval et ma robe vous vouldroye doner,</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Et trestout mon argent aussi vous donneray.”</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>L'oste luy respondi: “Et je vous y menray.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>431</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Puis a dit a son hoste: “Je demouray decha.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Jamais de cy n'yray, si sera retrouvee.”</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Le preudom s'en alla, qui n'y fist demouree,</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>473</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>“C'est la clef de la roche, sans variatïon,</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ou j'enfermay Gregoire, qui tant estoit preudom.”</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Quant ilz ouÿrent l'oste de Gregoire parler,</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>494</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>En la cité de Romme; povoir arez sur tous.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Dieu veult que pape soyes a Rome sans delay.”</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Saint Gregoire respond: “Par la foy qu'a Dieu doy,</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>497</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Jamais de ceste roche mie ne partiray,</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Se je ne voy la clef qu'en la mer je jettay.”</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Son hoste lui a dit, sans longue demourance:</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>505</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Je veul bien estre pape puis qu'il vient au plaisir</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>De cellui qui pour nous voulut en croix mourir.”</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Lors ouvrirent la roche, si est yssu dehors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>550</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Saint Gregoire l'apelle, et lui dist: “Doulce amye,</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Contez moy vostre estat maintenant, sans delay.”</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Elle dist: “De mon frere oulz ung filz, par ma foy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>554</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Il a bien quatorze ans qu'il se parti de moy;</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ne onc puis ne le peulx vëoir ne rencotrer.”</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Quant saint Gregoire l'ot, il print a soupirer.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11150,7 +12201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -11465,7 +12516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -11598,279 +12649,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>53</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Disoient l'un a l'autre: “Certainement, je cuit</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Que il couchent ensemble et gisent per a per.”</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Tant avint que saint Leu en ouÿ parler.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>71</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Devant que Dieu le pere qui sur tous est puissans</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Me rende mon anel, ains seré ponëans.”</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>En Beauvoisin ala ou demoura sept ans.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>95</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Qu'en si noble contree doivent tous biens faillir.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>De cy ne partiroy jusques a ton plesir!.”</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Lez chanoignes de Sens firent saint leu querir</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>122</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Seigneurs, il m'est avis que c'est yci l'anel</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A nostre archevesque, le sien estoit ytel.”</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Tous emsamble le virent, si leur semblast moult bel.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>132</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Dieu voult qui se remaigne, il est en Beauvoisis,</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Sus la riviere d'Oise a Serens moult servis.”</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Pour l'amour de la voys prindrent fort a chanter</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>145</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>“Jamez tant que je vive ne partiroy de cy,</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Si n'aroy vraie ensengne du tres dolx roys des roys.”</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>L'un dez seigneurs lui dist: “Sire, il est bien drois.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>155</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ne crut ne blé ne vin, ne savon le pechié.</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Sire, pour Dieu mercy, prengne vous en pitié.”</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Et saint Leu respondi: “Puis qu'il vous plest j'iré.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>175</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Comment vous estes vous si longuement tenu</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>De venir visiter vostre peuple menu?”</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>L'archevesque saint Leu si lui a repondu:</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>178</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>“Coulombe, belle suer, chascun si doit mater</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sa charongne pour Dieu servir et hounourer.”</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>A ces mos lez chanoignes l'alerent encontrer,</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>211</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Que cest monde ne voit point a tel desperance.</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>S'il vous ont courouché en feront penitance.”</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Or oés leż vertus du doux roy de puissance;</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>220</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>De mon mal ou qu'il soyient, ce le prengnent a gré,</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Qu'en l'autre ciecle soient leur pechié pardonné.”</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Li angres devant luy descendit des sains cieulx</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>228</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Se ainsy est, ne soient entechié de ton nom</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Que james en leur vie n'aront se bien nom.”</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>L'angre s'en est allé et saint Leu demoura.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>